--- a/docs/TopperNav Gantt Chart.xlsx
+++ b/docs/TopperNav Gantt Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/014b0dfa241f4418/Desktop/TopperNav/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31C58EAF-26AA-4A5B-A8DB-15172786A36E}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103C8527-B2C6-4E2A-B497-FA330A4EA448}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>TopperNav</t>
   </si>
@@ -161,9 +161,6 @@
     <t xml:space="preserve">Team Creation </t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Presentation </t>
   </si>
   <si>
@@ -174,6 +171,24 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Kayden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt Chart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron </t>
+  </si>
+  <si>
+    <t>Orginzational Doc</t>
+  </si>
+  <si>
+    <t>Techical Doc</t>
+  </si>
+  <si>
+    <t>Ryerson</t>
   </si>
 </sst>
 </file>
@@ -790,7 +805,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1121,6 +1136,21 @@
     </xf>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1724,10 +1754,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2455,7 +2485,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H33" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2518,13 +2548,13 @@
     <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="49">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="50">
         <f>J5</f>
@@ -2599,25 +2629,24 @@
     <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53">
-        <v>0.8</v>
-      </c>
-      <c r="E10" s="54">
-        <f>S5</f>
-        <v>45897</v>
-      </c>
-      <c r="F10" s="54">
-        <f>E10+2</f>
-        <v>45899</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+      <c r="E10" s="50">
+        <f>J5</f>
+        <v>45888</v>
+      </c>
+      <c r="F10" s="50">
+        <f>X5</f>
+        <v>45902</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
@@ -2630,8 +2659,8 @@
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
@@ -2676,28 +2705,28 @@
       <c r="BL10" s="51"/>
     </row>
     <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="54">
-        <f>J5</f>
-        <v>45888</v>
+        <f>S5</f>
+        <v>45897</v>
       </c>
       <c r="F11" s="54">
-        <f ca="1">TODAY()</f>
-        <v>45897</v>
+        <f>E11+2</f>
+        <v>45899</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
@@ -2711,8 +2740,8 @@
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
       <c r="Y11" s="51"/>
@@ -2762,23 +2791,21 @@
         <v>38</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="53">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D12" s="53"/>
       <c r="E12" s="54">
-        <f ca="1">F11</f>
+        <f>J5</f>
+        <v>45888</v>
+      </c>
+      <c r="F12" s="54">
+        <f ca="1">TODAY()</f>
         <v>45897</v>
-      </c>
-      <c r="F12" s="54">
-        <f ca="1">E12+5</f>
-        <v>45902</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2796,7 +2823,7 @@
       <c r="V12" s="51"/>
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
-      <c r="Y12" s="55"/>
+      <c r="Y12" s="51"/>
       <c r="Z12" s="51"/>
       <c r="AA12" s="51"/>
       <c r="AB12" s="51"/>
@@ -2840,24 +2867,26 @@
     <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>39</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
       <c r="E13" s="54">
-        <f>Q1</f>
-        <v>45888</v>
+        <f ca="1">F12</f>
+        <v>45897</v>
       </c>
       <c r="F13" s="54">
-        <f>Q1</f>
-        <v>45888</v>
+        <f ca="1">E13+5</f>
+        <v>45902</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2875,7 +2904,7 @@
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
+      <c r="Y13" s="55"/>
       <c r="Z13" s="51"/>
       <c r="AA13" s="51"/>
       <c r="AB13" s="51"/>
@@ -2917,197 +2946,200 @@
       <c r="BL13" s="51"/>
     </row>
     <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="53">
+        <v>1</v>
+      </c>
+      <c r="E14" s="54">
+        <f>Q1</f>
+        <v>45888</v>
+      </c>
+      <c r="F14" s="54">
+        <f>Q1</f>
+        <v>45888</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="51"/>
+      <c r="AL14" s="51"/>
+      <c r="AM14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="51"/>
+      <c r="BD14" s="51"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="BH14" s="51"/>
+      <c r="BI14" s="51"/>
+      <c r="BJ14" s="51"/>
+      <c r="BK14" s="51"/>
+      <c r="BL14" s="51"/>
+    </row>
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="123">
+        <v>1</v>
+      </c>
+      <c r="E15" s="124">
+        <f>I5</f>
+        <v>45887</v>
+      </c>
+      <c r="F15" s="124">
+        <f>X5</f>
+        <v>45902</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="125"/>
+      <c r="AJ15" s="125"/>
+      <c r="AK15" s="125"/>
+      <c r="AL15" s="125"/>
+      <c r="AM15" s="125"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
+      <c r="AQ15" s="125"/>
+      <c r="AR15" s="125"/>
+      <c r="AS15" s="125"/>
+      <c r="AT15" s="125"/>
+      <c r="AU15" s="125"/>
+      <c r="AV15" s="125"/>
+      <c r="AW15" s="125"/>
+      <c r="AX15" s="125"/>
+      <c r="AY15" s="125"/>
+      <c r="AZ15" s="125"/>
+      <c r="BA15" s="125"/>
+      <c r="BB15" s="125"/>
+      <c r="BC15" s="125"/>
+      <c r="BD15" s="125"/>
+      <c r="BE15" s="125"/>
+      <c r="BF15" s="125"/>
+      <c r="BG15" s="125"/>
+      <c r="BH15" s="125"/>
+      <c r="BI15" s="125"/>
+      <c r="BJ15" s="125"/>
+      <c r="BK15" s="125"/>
+      <c r="BL15" s="125"/>
+    </row>
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="5" t="str">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="61" t="s">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63">
+      <c r="C17" s="62"/>
+      <c r="D17" s="63">
         <v>0.5</v>
       </c>
-      <c r="E15" s="64">
-        <f>E13+1</f>
+      <c r="E17" s="64">
+        <f>E14+1</f>
         <v>45889</v>
       </c>
-      <c r="F15" s="64">
-        <f>E15+4</f>
+      <c r="F17" s="64">
+        <f>E17+4</f>
         <v>45893</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51"/>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51"/>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51"/>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="51"/>
-      <c r="BI15" s="51"/>
-      <c r="BJ15" s="51"/>
-      <c r="BK15" s="51"/>
-      <c r="BL15" s="51"/>
-    </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="64">
-        <f>E15+2</f>
-        <v>45891</v>
-      </c>
-      <c r="F16" s="64">
-        <f>E16+5</f>
-        <v>45896</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="51"/>
-      <c r="AT16" s="51"/>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51"/>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="51"/>
-      <c r="BI16" s="51"/>
-      <c r="BJ16" s="51"/>
-      <c r="BK16" s="51"/>
-      <c r="BL16" s="51"/>
-    </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64">
-        <f>F16</f>
-        <v>45896</v>
-      </c>
-      <c r="F17" s="64">
-        <f>E17+3</f>
-        <v>45899</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
@@ -3169,22 +3201,24 @@
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="63">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="64">
-        <f>E17</f>
+        <f>E17+2</f>
+        <v>45891</v>
+      </c>
+      <c r="F18" s="64">
+        <f>E18+5</f>
         <v>45896</v>
-      </c>
-      <c r="F18" s="64">
-        <f>E18+2</f>
-        <v>45898</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3198,11 +3232,11 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
-      <c r="Y18" s="55"/>
+      <c r="Y18" s="51"/>
       <c r="Z18" s="51"/>
       <c r="AA18" s="51"/>
       <c r="AB18" s="51"/>
@@ -3246,12 +3280,12 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="63"/>
       <c r="E19" s="64">
-        <f>E18</f>
+        <f>F18</f>
         <v>45896</v>
       </c>
       <c r="F19" s="64">
@@ -3322,96 +3356,100 @@
     </row>
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
+      <c r="B20" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64">
+        <f>E19</f>
+        <v>45896</v>
+      </c>
+      <c r="F20" s="64">
+        <f>E20+2</f>
+        <v>45898</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="5" t="str">
+      <c r="H20" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="70"/>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="70"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="70"/>
-      <c r="BG20" s="70"/>
-      <c r="BH20" s="70"/>
-      <c r="BI20" s="70"/>
-      <c r="BJ20" s="70"/>
-      <c r="BK20" s="70"/>
-      <c r="BL20" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
     </row>
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="74">
-        <f>E9+15</f>
-        <v>45903</v>
-      </c>
-      <c r="F21" s="74">
-        <f>E21+5</f>
-        <v>45908</v>
+      <c r="B21" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64">
+        <f>E20</f>
+        <v>45896</v>
+      </c>
+      <c r="F21" s="64">
+        <f>E21+3</f>
+        <v>45899</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3472,99 +3510,91 @@
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73">
-        <v>0.6</v>
-      </c>
-      <c r="E22" s="74">
-        <f>F21+1</f>
-        <v>45909</v>
-      </c>
-      <c r="F22" s="74">
-        <f>E22+4</f>
-        <v>45913</v>
-      </c>
+      <c r="B22" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="5">
+      <c r="H22" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AG22" s="51"/>
-      <c r="AH22" s="51"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
+        <v/>
+      </c>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="70"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="70"/>
+      <c r="AK22" s="70"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="70"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="70"/>
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="70"/>
+      <c r="BB22" s="70"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="70"/>
+      <c r="BG22" s="70"/>
+      <c r="BH22" s="70"/>
+      <c r="BI22" s="70"/>
+      <c r="BJ22" s="70"/>
+      <c r="BK22" s="70"/>
+      <c r="BL22" s="70"/>
     </row>
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="72"/>
       <c r="D23" s="73">
         <v>0.5</v>
       </c>
       <c r="E23" s="74">
-        <f>E22+5</f>
-        <v>45914</v>
+        <f>E9+15</f>
+        <v>45903</v>
       </c>
       <c r="F23" s="74">
         <f>E23+5</f>
-        <v>45919</v>
+        <v>45908</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5">
@@ -3631,19 +3661,19 @@
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="73">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="74">
         <f>F23+1</f>
-        <v>45920</v>
+        <v>45909</v>
       </c>
       <c r="F24" s="74">
         <f>E24+4</f>
-        <v>45924</v>
+        <v>45913</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
@@ -3710,24 +3740,24 @@
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="74">
-        <f>E23</f>
+        <f>E24+5</f>
         <v>45914</v>
       </c>
       <c r="F25" s="74">
-        <f>E25+4</f>
-        <v>45918</v>
+        <f>E25+5</f>
+        <v>45919</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -3788,96 +3818,104 @@
     </row>
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
+      <c r="B26" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="E26" s="74">
+        <f>F25+1</f>
+        <v>45920</v>
+      </c>
+      <c r="F26" s="74">
+        <f>E26+4</f>
+        <v>45924</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="80"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="80"/>
-      <c r="W26" s="80"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="80"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="80"/>
-      <c r="AE26" s="80"/>
-      <c r="AF26" s="80"/>
-      <c r="AG26" s="80"/>
-      <c r="AH26" s="80"/>
-      <c r="AI26" s="80"/>
-      <c r="AJ26" s="80"/>
-      <c r="AK26" s="80"/>
-      <c r="AL26" s="80"/>
-      <c r="AM26" s="80"/>
-      <c r="AN26" s="80"/>
-      <c r="AO26" s="80"/>
-      <c r="AP26" s="80"/>
-      <c r="AQ26" s="80"/>
-      <c r="AR26" s="80"/>
-      <c r="AS26" s="80"/>
-      <c r="AT26" s="80"/>
-      <c r="AU26" s="80"/>
-      <c r="AV26" s="80"/>
-      <c r="AW26" s="80"/>
-      <c r="AX26" s="80"/>
-      <c r="AY26" s="80"/>
-      <c r="AZ26" s="80"/>
-      <c r="BA26" s="80"/>
-      <c r="BB26" s="80"/>
-      <c r="BC26" s="80"/>
-      <c r="BD26" s="80"/>
-      <c r="BE26" s="80"/>
-      <c r="BF26" s="80"/>
-      <c r="BG26" s="80"/>
-      <c r="BH26" s="80"/>
-      <c r="BI26" s="80"/>
-      <c r="BJ26" s="80"/>
-      <c r="BK26" s="80"/>
-      <c r="BL26" s="80"/>
+        <v>5</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
     </row>
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83">
+      <c r="B27" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="73">
         <v>0.25</v>
       </c>
-      <c r="E27" s="84">
-        <f>E21+2</f>
-        <v>45905</v>
-      </c>
-      <c r="F27" s="84">
-        <f>E27+3</f>
-        <v>45908</v>
+      <c r="E27" s="74">
+        <f>E25</f>
+        <v>45914</v>
+      </c>
+      <c r="F27" s="74">
+        <f>E27+4</f>
+        <v>45918</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
@@ -3938,99 +3976,91 @@
     </row>
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E28" s="84">
-        <f>F27</f>
-        <v>45908</v>
-      </c>
-      <c r="F28" s="84">
-        <f>E28+4</f>
-        <v>45912</v>
-      </c>
+      <c r="B28" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="5">
+      <c r="H28" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
-      <c r="AS28" s="51"/>
-      <c r="AT28" s="51"/>
-      <c r="AU28" s="51"/>
-      <c r="AV28" s="51"/>
-      <c r="AW28" s="51"/>
-      <c r="AX28" s="51"/>
-      <c r="AY28" s="51"/>
-      <c r="AZ28" s="51"/>
-      <c r="BA28" s="51"/>
-      <c r="BB28" s="51"/>
-      <c r="BC28" s="51"/>
-      <c r="BD28" s="51"/>
-      <c r="BE28" s="51"/>
-      <c r="BF28" s="51"/>
-      <c r="BG28" s="51"/>
-      <c r="BH28" s="51"/>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="51"/>
-      <c r="BK28" s="51"/>
-      <c r="BL28" s="51"/>
+        <v/>
+      </c>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="80"/>
+      <c r="AD28" s="80"/>
+      <c r="AE28" s="80"/>
+      <c r="AF28" s="80"/>
+      <c r="AG28" s="80"/>
+      <c r="AH28" s="80"/>
+      <c r="AI28" s="80"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="80"/>
+      <c r="AL28" s="80"/>
+      <c r="AM28" s="80"/>
+      <c r="AN28" s="80"/>
+      <c r="AO28" s="80"/>
+      <c r="AP28" s="80"/>
+      <c r="AQ28" s="80"/>
+      <c r="AR28" s="80"/>
+      <c r="AS28" s="80"/>
+      <c r="AT28" s="80"/>
+      <c r="AU28" s="80"/>
+      <c r="AV28" s="80"/>
+      <c r="AW28" s="80"/>
+      <c r="AX28" s="80"/>
+      <c r="AY28" s="80"/>
+      <c r="AZ28" s="80"/>
+      <c r="BA28" s="80"/>
+      <c r="BB28" s="80"/>
+      <c r="BC28" s="80"/>
+      <c r="BD28" s="80"/>
+      <c r="BE28" s="80"/>
+      <c r="BF28" s="80"/>
+      <c r="BG28" s="80"/>
+      <c r="BH28" s="80"/>
+      <c r="BI28" s="80"/>
+      <c r="BJ28" s="80"/>
+      <c r="BK28" s="80"/>
+      <c r="BL28" s="80"/>
     </row>
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="82"/>
       <c r="D29" s="83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E29" s="84">
-        <f>F28+1</f>
-        <v>45913</v>
+        <f>E23+2</f>
+        <v>45905</v>
       </c>
       <c r="F29" s="84">
         <f>E29+3</f>
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
@@ -4097,24 +4127,24 @@
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="82"/>
       <c r="D30" s="83">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E30" s="84">
-        <f>E27+5</f>
-        <v>45910</v>
+        <f>F29</f>
+        <v>45908</v>
       </c>
       <c r="F30" s="84">
-        <f>E30+3</f>
-        <v>45913</v>
+        <f>E30+4</f>
+        <v>45912</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -4176,24 +4206,24 @@
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="82"/>
       <c r="D31" s="83">
         <v>0.5</v>
       </c>
       <c r="E31" s="84">
-        <f>E27+7</f>
-        <v>45912</v>
+        <f>F30+1</f>
+        <v>45913</v>
       </c>
       <c r="F31" s="84">
-        <f>E31+5</f>
-        <v>45917</v>
+        <f>E31+3</f>
+        <v>45916</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
@@ -4254,153 +4284,311 @@
     </row>
     <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
+      <c r="B32" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="84">
+        <f>E29+5</f>
+        <v>45910</v>
+      </c>
+      <c r="F32" s="84">
+        <f>E32+3</f>
+        <v>45913</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="51"/>
+      <c r="AK32" s="51"/>
+      <c r="AL32" s="51"/>
+      <c r="AM32" s="51"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="51"/>
+      <c r="BA32" s="51"/>
+      <c r="BB32" s="51"/>
+      <c r="BC32" s="51"/>
+      <c r="BD32" s="51"/>
+      <c r="BE32" s="51"/>
+      <c r="BF32" s="51"/>
+      <c r="BG32" s="51"/>
+      <c r="BH32" s="51"/>
+      <c r="BI32" s="51"/>
+      <c r="BJ32" s="51"/>
+      <c r="BK32" s="51"/>
+      <c r="BL32" s="51"/>
+    </row>
+    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="84">
+        <f>E29+7</f>
+        <v>45912</v>
+      </c>
+      <c r="F33" s="84">
+        <f>E33+5</f>
+        <v>45917</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="51"/>
+      <c r="BB33" s="51"/>
+      <c r="BC33" s="51"/>
+      <c r="BD33" s="51"/>
+      <c r="BE33" s="51"/>
+      <c r="BF33" s="51"/>
+      <c r="BG33" s="51"/>
+      <c r="BH33" s="51"/>
+      <c r="BI33" s="51"/>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51"/>
+      <c r="BL33" s="51"/>
+    </row>
+    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
-      <c r="BA32" s="45"/>
-      <c r="BB32" s="45"/>
-      <c r="BC32" s="45"/>
-      <c r="BD32" s="45"/>
-      <c r="BE32" s="45"/>
-      <c r="BF32" s="45"/>
-      <c r="BG32" s="45"/>
-      <c r="BH32" s="45"/>
-      <c r="BI32" s="45"/>
-      <c r="BJ32" s="45"/>
-      <c r="BK32" s="45"/>
-      <c r="BL32" s="45"/>
-    </row>
-    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="89" t="s">
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="45"/>
+      <c r="AE34" s="45"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="45"/>
+      <c r="AI34" s="45"/>
+      <c r="AJ34" s="45"/>
+      <c r="AK34" s="45"/>
+      <c r="AL34" s="45"/>
+      <c r="AM34" s="45"/>
+      <c r="AN34" s="45"/>
+      <c r="AO34" s="45"/>
+      <c r="AP34" s="45"/>
+      <c r="AQ34" s="45"/>
+      <c r="AR34" s="45"/>
+      <c r="AS34" s="45"/>
+      <c r="AT34" s="45"/>
+      <c r="AU34" s="45"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
+      <c r="BB34" s="45"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BE34" s="45"/>
+      <c r="BF34" s="45"/>
+      <c r="BG34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="45"/>
+      <c r="BL34" s="45"/>
+    </row>
+    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="6" t="str">
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="94"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="94"/>
-      <c r="AJ33" s="94"/>
-      <c r="AK33" s="94"/>
-      <c r="AL33" s="94"/>
-      <c r="AM33" s="94"/>
-      <c r="AN33" s="94"/>
-      <c r="AO33" s="94"/>
-      <c r="AP33" s="94"/>
-      <c r="AQ33" s="94"/>
-      <c r="AR33" s="94"/>
-      <c r="AS33" s="94"/>
-      <c r="AT33" s="94"/>
-      <c r="AU33" s="94"/>
-      <c r="AV33" s="94"/>
-      <c r="AW33" s="94"/>
-      <c r="AX33" s="94"/>
-      <c r="AY33" s="94"/>
-      <c r="AZ33" s="94"/>
-      <c r="BA33" s="94"/>
-      <c r="BB33" s="94"/>
-      <c r="BC33" s="94"/>
-      <c r="BD33" s="94"/>
-      <c r="BE33" s="94"/>
-      <c r="BF33" s="94"/>
-      <c r="BG33" s="94"/>
-      <c r="BH33" s="94"/>
-      <c r="BI33" s="94"/>
-      <c r="BJ33" s="94"/>
-      <c r="BK33" s="94"/>
-      <c r="BL33" s="94"/>
-    </row>
-    <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="16"/>
-      <c r="F35" s="15"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="94"/>
+      <c r="AI35" s="94"/>
+      <c r="AJ35" s="94"/>
+      <c r="AK35" s="94"/>
+      <c r="AL35" s="94"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="94"/>
+      <c r="AO35" s="94"/>
+      <c r="AP35" s="94"/>
+      <c r="AQ35" s="94"/>
+      <c r="AR35" s="94"/>
+      <c r="AS35" s="94"/>
+      <c r="AT35" s="94"/>
+      <c r="AU35" s="94"/>
+      <c r="AV35" s="94"/>
+      <c r="AW35" s="94"/>
+      <c r="AX35" s="94"/>
+      <c r="AY35" s="94"/>
+      <c r="AZ35" s="94"/>
+      <c r="BA35" s="94"/>
+      <c r="BB35" s="94"/>
+      <c r="BC35" s="94"/>
+      <c r="BD35" s="94"/>
+      <c r="BE35" s="94"/>
+      <c r="BF35" s="94"/>
+      <c r="BG35" s="94"/>
+      <c r="BH35" s="94"/>
+      <c r="BI35" s="94"/>
+      <c r="BJ35" s="94"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="16"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4423,7 +4611,7 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4437,12 +4625,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL31">
+  <conditionalFormatting sqref="I4:BL33">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:BL13">
+  <conditionalFormatting sqref="I9:BL15">
     <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4450,7 +4638,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL19">
+  <conditionalFormatting sqref="I17:BL21">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4458,7 +4646,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:BL25">
+  <conditionalFormatting sqref="I23:BL27">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4466,7 +4654,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:BL31">
+  <conditionalFormatting sqref="I29:BL33">
     <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4484,12 +4672,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{43382715-6BC7-4B19-A31B-4B13A11ED166}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{7A3789A6-A3FB-43B6-A4F7-8C0AC564F67E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B8 contains the Phase 1 sample title. Enter a new title in cell B8._x000a_To delete the phase and work only from tasks, simply delete this row." sqref="A8" xr:uid="{CEC78982-AFA8-419E-B0A2-676B709E5100}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A14" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A20" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A26" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A33" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9:A10" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A11" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A16" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A22" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A28" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A35" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4498,7 +4686,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23 F28" formula="1"/>
+    <ignoredError sqref="F20 F24:F25 E25 F30" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4516,7 +4704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/docs/TopperNav Gantt Chart.xlsx
+++ b/docs/TopperNav Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/014b0dfa241f4418/Desktop/TopperNav/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103C8527-B2C6-4E2A-B497-FA330A4EA448}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE62A62-0FFE-444A-942B-7DE6E2EA5E0C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>TopperNav</t>
   </si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>Ryerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define System Boundries </t>
+  </si>
+  <si>
+    <t>Use Case Diagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequance / Deployment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirments Tracability </t>
+  </si>
+  <si>
+    <t>Kaden</t>
+  </si>
+  <si>
+    <t>Structual Design (Façade)</t>
+  </si>
+  <si>
+    <t>State / Component</t>
+  </si>
+  <si>
+    <t>Behavioral Desgin (State)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
   </si>
 </sst>
 </file>
@@ -805,7 +832,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1097,22 +1124,31 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1128,29 +1164,29 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1754,10 +1790,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="93" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1783,28 +1819,28 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="113">
+      <c r="Q1" s="116">
         <v>45888</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="104" t="s">
@@ -1814,28 +1850,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="111">
+      <c r="Q2" s="114">
         <v>1</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1849,102 +1885,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="I4" s="120">
+      <c r="I4" s="111">
         <f>I5</f>
         <v>45887</v>
       </c>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109">
         <f>P5</f>
         <v>45894</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109">
         <f>W5</f>
         <v>45901</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109">
         <f>AD5</f>
         <v>45908</v>
       </c>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109">
         <f>AK5</f>
         <v>45915</v>
       </c>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109">
         <f>AR5</f>
         <v>45922</v>
       </c>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109">
         <f>AY5</f>
         <v>45929</v>
       </c>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109">
         <f>BF5</f>
         <v>45936</v>
       </c>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="119"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="112" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="31">
@@ -2173,12 +2209,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2485,7 +2521,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H41" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2800,12 +2836,12 @@
       </c>
       <c r="F12" s="54">
         <f ca="1">TODAY()</f>
-        <v>45897</v>
+        <v>45928</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2877,11 +2913,11 @@
       </c>
       <c r="E13" s="54">
         <f ca="1">F12</f>
-        <v>45897</v>
+        <v>45928</v>
       </c>
       <c r="F13" s="54">
         <f ca="1">E13+5</f>
-        <v>45902</v>
+        <v>45933</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
@@ -3028,81 +3064,25 @@
     </row>
     <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="123">
+      <c r="D15" s="107">
         <v>1</v>
       </c>
-      <c r="E15" s="124">
+      <c r="E15" s="108">
         <f>I5</f>
         <v>45887</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="108">
         <f>X5</f>
         <v>45902</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="125"/>
-      <c r="T15" s="125"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="125"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="125"/>
-      <c r="AL15" s="125"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
-      <c r="AZ15" s="125"/>
-      <c r="BA15" s="125"/>
-      <c r="BB15" s="125"/>
-      <c r="BC15" s="125"/>
-      <c r="BD15" s="125"/>
-      <c r="BE15" s="125"/>
-      <c r="BF15" s="125"/>
-      <c r="BG15" s="125"/>
-      <c r="BH15" s="125"/>
-      <c r="BI15" s="125"/>
-      <c r="BJ15" s="125"/>
-      <c r="BK15" s="125"/>
-      <c r="BL15" s="125"/>
     </row>
     <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
@@ -3122,24 +3102,26 @@
     <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="62"/>
+        <v>46</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="D17" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="64">
-        <f>E14+1</f>
-        <v>45889</v>
+        <f>AC5</f>
+        <v>45907</v>
       </c>
       <c r="F17" s="64">
-        <f>E17+4</f>
-        <v>45893</v>
+        <f>AJ5</f>
+        <v>45914</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
@@ -3199,27 +3181,26 @@
       <c r="BL17" s="51"/>
     </row>
     <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="62"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="64">
-        <f>E17+2</f>
-        <v>45891</v>
+        <f>AF5</f>
+        <v>45910</v>
       </c>
       <c r="F18" s="64">
-        <f>E18+5</f>
-        <v>45896</v>
+        <f>AN5</f>
+        <v>45918</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
       <c r="K18" s="51"/>
@@ -3232,8 +3213,8 @@
       <c r="R18" s="51"/>
       <c r="S18" s="51"/>
       <c r="T18" s="51"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
       <c r="Y18" s="51"/>
@@ -3280,22 +3261,26 @@
     <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="63">
+        <v>1</v>
+      </c>
       <c r="E19" s="64">
-        <f>F18</f>
-        <v>45896</v>
+        <f>AK5</f>
+        <v>45915</v>
       </c>
       <c r="F19" s="64">
-        <f>E19+3</f>
-        <v>45899</v>
+        <f>E19+5</f>
+        <v>45920</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
@@ -3309,8 +3294,8 @@
       <c r="R19" s="51"/>
       <c r="S19" s="51"/>
       <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
       <c r="Y19" s="51"/>
@@ -3357,23 +3342,24 @@
     <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="63">
+        <v>1</v>
+      </c>
       <c r="E20" s="64">
-        <f>E19</f>
-        <v>45896</v>
+        <f>AP5</f>
+        <v>45920</v>
       </c>
       <c r="F20" s="64">
-        <f>E20+2</f>
-        <v>45898</v>
+        <f>E20+3</f>
+        <v>45923</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="5">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
@@ -3386,11 +3372,11 @@
       <c r="R20" s="51"/>
       <c r="S20" s="51"/>
       <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
-      <c r="Y20" s="55"/>
+      <c r="Y20" s="51"/>
       <c r="Z20" s="51"/>
       <c r="AA20" s="51"/>
       <c r="AB20" s="51"/>
@@ -3434,23 +3420,24 @@
     <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
+        <v>48</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="63">
+        <v>1</v>
+      </c>
       <c r="E21" s="64">
         <f>E20</f>
-        <v>45896</v>
+        <v>45920</v>
       </c>
       <c r="F21" s="64">
-        <f>E21+3</f>
-        <v>45899</v>
+        <f>E20+5</f>
+        <v>45925</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
@@ -3463,8 +3450,8 @@
       <c r="R21" s="51"/>
       <c r="S21" s="51"/>
       <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
@@ -3510,97 +3497,106 @@
     </row>
     <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
+      <c r="B22" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="63">
+        <v>1</v>
+      </c>
+      <c r="E22" s="64">
+        <f>F19</f>
+        <v>45920</v>
+      </c>
+      <c r="F22" s="64">
+        <f>E22+5</f>
+        <v>45925</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="70"/>
-      <c r="AO22" s="70"/>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="70"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70"/>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="70"/>
-      <c r="BG22" s="70"/>
-      <c r="BH22" s="70"/>
-      <c r="BI22" s="70"/>
-      <c r="BJ22" s="70"/>
-      <c r="BK22" s="70"/>
-      <c r="BL22" s="70"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="51"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51"/>
+      <c r="AK22" s="51"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
     </row>
     <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="74">
-        <f>E9+15</f>
-        <v>45903</v>
-      </c>
-      <c r="F23" s="74">
+      <c r="B23" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="63">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
+        <f>AM5</f>
+        <v>45917</v>
+      </c>
+      <c r="F23" s="64">
         <f>E23+5</f>
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="51"/>
@@ -3617,7 +3613,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
+      <c r="Y23" s="55"/>
       <c r="Z23" s="51"/>
       <c r="AA23" s="51"/>
       <c r="AB23" s="51"/>
@@ -3660,26 +3656,25 @@
     </row>
     <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="73">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="74">
-        <f>F23+1</f>
-        <v>45909</v>
-      </c>
-      <c r="F24" s="74">
-        <f>E24+4</f>
-        <v>45913</v>
+      <c r="B24" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="63">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64">
+        <f>E22</f>
+        <v>45920</v>
+      </c>
+      <c r="F24" s="64">
+        <f>F23</f>
+        <v>45922</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H24" s="5"/>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
       <c r="K24" s="51"/>
@@ -3696,7 +3691,7 @@
       <c r="V24" s="51"/>
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
+      <c r="Y24" s="55"/>
       <c r="Z24" s="51"/>
       <c r="AA24" s="51"/>
       <c r="AB24" s="51"/>
@@ -3739,25 +3734,27 @@
     </row>
     <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="74">
-        <f>E24+5</f>
-        <v>45914</v>
-      </c>
-      <c r="F25" s="74">
-        <f>E25+5</f>
-        <v>45919</v>
+      <c r="B25" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="63">
+        <v>1</v>
+      </c>
+      <c r="E25" s="64">
+        <f>AV5</f>
+        <v>45926</v>
+      </c>
+      <c r="F25" s="64">
+        <f>E25+3</f>
+        <v>45929</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -3818,254 +3815,252 @@
     </row>
     <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E26" s="74">
-        <f>F25+1</f>
-        <v>45920</v>
-      </c>
-      <c r="F26" s="74">
-        <f>E26+4</f>
-        <v>45924</v>
+      <c r="B26" s="125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="127">
+        <v>1</v>
+      </c>
+      <c r="E26" s="128">
+        <f>AD5</f>
+        <v>45908</v>
+      </c>
+      <c r="F26" s="128">
+        <f>AX5</f>
+        <v>45928</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="51"/>
-      <c r="BA26" s="51"/>
-      <c r="BB26" s="51"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="51"/>
-      <c r="BE26" s="51"/>
-      <c r="BF26" s="51"/>
-      <c r="BG26" s="51"/>
-      <c r="BH26" s="51"/>
-      <c r="BI26" s="51"/>
-      <c r="BJ26" s="51"/>
-      <c r="BK26" s="51"/>
-      <c r="BL26" s="51"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="70"/>
+      <c r="AD26" s="70"/>
+      <c r="AE26" s="70"/>
+      <c r="AF26" s="70"/>
+      <c r="AG26" s="70"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="70"/>
+      <c r="AJ26" s="70"/>
+      <c r="AK26" s="70"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="70"/>
+      <c r="AN26" s="70"/>
+      <c r="AO26" s="70"/>
+      <c r="AP26" s="70"/>
+      <c r="AQ26" s="70"/>
+      <c r="AR26" s="70"/>
+      <c r="AS26" s="70"/>
+      <c r="AT26" s="70"/>
+      <c r="AU26" s="70"/>
+      <c r="AV26" s="70"/>
+      <c r="AW26" s="70"/>
+      <c r="AX26" s="70"/>
+      <c r="AY26" s="70"/>
+      <c r="AZ26" s="70"/>
+      <c r="BA26" s="70"/>
+      <c r="BB26" s="70"/>
+      <c r="BC26" s="70"/>
+      <c r="BD26" s="70"/>
+      <c r="BE26" s="70"/>
+      <c r="BF26" s="70"/>
+      <c r="BG26" s="70"/>
+      <c r="BH26" s="70"/>
+      <c r="BI26" s="70"/>
+      <c r="BJ26" s="70"/>
+      <c r="BK26" s="70"/>
+      <c r="BL26" s="70"/>
     </row>
     <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="74">
-        <f>E25</f>
-        <v>45914</v>
-      </c>
-      <c r="F27" s="74">
-        <f>E27+4</f>
-        <v>45918</v>
+      <c r="B27" s="125" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="127">
+        <v>1</v>
+      </c>
+      <c r="E27" s="128">
+        <f>F9</f>
+        <v>45902</v>
+      </c>
+      <c r="F27" s="128">
+        <f>AX5</f>
+        <v>45928</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
-      <c r="AS27" s="51"/>
-      <c r="AT27" s="51"/>
-      <c r="AU27" s="51"/>
-      <c r="AV27" s="51"/>
-      <c r="AW27" s="51"/>
-      <c r="AX27" s="51"/>
-      <c r="AY27" s="51"/>
-      <c r="AZ27" s="51"/>
-      <c r="BA27" s="51"/>
-      <c r="BB27" s="51"/>
-      <c r="BC27" s="51"/>
-      <c r="BD27" s="51"/>
-      <c r="BE27" s="51"/>
-      <c r="BF27" s="51"/>
-      <c r="BG27" s="51"/>
-      <c r="BH27" s="51"/>
-      <c r="BI27" s="51"/>
-      <c r="BJ27" s="51"/>
-      <c r="BK27" s="51"/>
-      <c r="BL27" s="51"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="70"/>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="70"/>
+      <c r="AF27" s="70"/>
+      <c r="AG27" s="70"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="70"/>
+      <c r="AM27" s="70"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="70"/>
+      <c r="AS27" s="70"/>
+      <c r="AT27" s="70"/>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="70"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="70"/>
+      <c r="BD27" s="70"/>
+      <c r="BE27" s="70"/>
+      <c r="BF27" s="70"/>
+      <c r="BG27" s="70"/>
+      <c r="BH27" s="70"/>
+      <c r="BI27" s="70"/>
+      <c r="BJ27" s="70"/>
+      <c r="BK27" s="70"/>
+      <c r="BL27" s="70"/>
     </row>
     <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
+      <c r="B28" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="17"/>
       <c r="H28" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="80"/>
-      <c r="AE28" s="80"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
-      <c r="AJ28" s="80"/>
-      <c r="AK28" s="80"/>
-      <c r="AL28" s="80"/>
-      <c r="AM28" s="80"/>
-      <c r="AN28" s="80"/>
-      <c r="AO28" s="80"/>
-      <c r="AP28" s="80"/>
-      <c r="AQ28" s="80"/>
-      <c r="AR28" s="80"/>
-      <c r="AS28" s="80"/>
-      <c r="AT28" s="80"/>
-      <c r="AU28" s="80"/>
-      <c r="AV28" s="80"/>
-      <c r="AW28" s="80"/>
-      <c r="AX28" s="80"/>
-      <c r="AY28" s="80"/>
-      <c r="AZ28" s="80"/>
-      <c r="BA28" s="80"/>
-      <c r="BB28" s="80"/>
-      <c r="BC28" s="80"/>
-      <c r="BD28" s="80"/>
-      <c r="BE28" s="80"/>
-      <c r="BF28" s="80"/>
-      <c r="BG28" s="80"/>
-      <c r="BH28" s="80"/>
-      <c r="BI28" s="80"/>
-      <c r="BJ28" s="80"/>
-      <c r="BK28" s="80"/>
-      <c r="BL28" s="80"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="70"/>
+      <c r="AF28" s="70"/>
+      <c r="AG28" s="70"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="70"/>
+      <c r="AM28" s="70"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="70"/>
+      <c r="AS28" s="70"/>
+      <c r="AT28" s="70"/>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="70"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="70"/>
+      <c r="BH28" s="70"/>
+      <c r="BI28" s="70"/>
+      <c r="BJ28" s="70"/>
+      <c r="BK28" s="70"/>
+      <c r="BL28" s="70"/>
     </row>
     <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E29" s="84">
-        <f>E23+2</f>
-        <v>45905</v>
-      </c>
-      <c r="F29" s="84">
-        <f>E29+3</f>
+      <c r="C29" s="72"/>
+      <c r="D29" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="74">
+        <f>E9+15</f>
+        <v>45903</v>
+      </c>
+      <c r="F29" s="74">
+        <f>E29+5</f>
         <v>45908</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" s="51"/>
       <c r="J29" s="51"/>
@@ -4126,20 +4121,20 @@
     </row>
     <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="84">
-        <f>F29</f>
-        <v>45908</v>
-      </c>
-      <c r="F30" s="84">
+      <c r="C30" s="72"/>
+      <c r="D30" s="73">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="74">
+        <f>F29+1</f>
+        <v>45909</v>
+      </c>
+      <c r="F30" s="74">
         <f>E30+4</f>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
@@ -4205,25 +4200,25 @@
     </row>
     <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83">
+      <c r="C31" s="72"/>
+      <c r="D31" s="73">
         <v>0.5</v>
       </c>
-      <c r="E31" s="84">
-        <f>F30+1</f>
-        <v>45913</v>
-      </c>
-      <c r="F31" s="84">
-        <f>E31+3</f>
-        <v>45916</v>
+      <c r="E31" s="74">
+        <f>E30+5</f>
+        <v>45914</v>
+      </c>
+      <c r="F31" s="74">
+        <f>E31+5</f>
+        <v>45919</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
@@ -4284,25 +4279,25 @@
     </row>
     <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83">
-        <v>0.6</v>
-      </c>
-      <c r="E32" s="84">
-        <f>E29+5</f>
-        <v>45910</v>
-      </c>
-      <c r="F32" s="84">
-        <f>E32+3</f>
-        <v>45913</v>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="74">
+        <f>F31+1</f>
+        <v>45920</v>
+      </c>
+      <c r="F32" s="74">
+        <f>E32+4</f>
+        <v>45924</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
@@ -4363,25 +4358,25 @@
     </row>
     <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="E33" s="84">
-        <f>E29+7</f>
-        <v>45912</v>
-      </c>
-      <c r="F33" s="84">
-        <f>E33+5</f>
-        <v>45917</v>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="74">
+        <f>E31</f>
+        <v>45914</v>
+      </c>
+      <c r="F33" s="74">
+        <f>E33+4</f>
+        <v>45918</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
@@ -4442,156 +4437,632 @@
     </row>
     <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
+      <c r="B34" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="17"/>
       <c r="H34" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
-      <c r="BB34" s="45"/>
-      <c r="BC34" s="45"/>
-      <c r="BD34" s="45"/>
-      <c r="BE34" s="45"/>
-      <c r="BF34" s="45"/>
-      <c r="BG34" s="45"/>
-      <c r="BH34" s="45"/>
-      <c r="BI34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="45"/>
-      <c r="BL34" s="45"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="80"/>
+      <c r="AH34" s="80"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="80"/>
+      <c r="AL34" s="80"/>
+      <c r="AM34" s="80"/>
+      <c r="AN34" s="80"/>
+      <c r="AO34" s="80"/>
+      <c r="AP34" s="80"/>
+      <c r="AQ34" s="80"/>
+      <c r="AR34" s="80"/>
+      <c r="AS34" s="80"/>
+      <c r="AT34" s="80"/>
+      <c r="AU34" s="80"/>
+      <c r="AV34" s="80"/>
+      <c r="AW34" s="80"/>
+      <c r="AX34" s="80"/>
+      <c r="AY34" s="80"/>
+      <c r="AZ34" s="80"/>
+      <c r="BA34" s="80"/>
+      <c r="BB34" s="80"/>
+      <c r="BC34" s="80"/>
+      <c r="BD34" s="80"/>
+      <c r="BE34" s="80"/>
+      <c r="BF34" s="80"/>
+      <c r="BG34" s="80"/>
+      <c r="BH34" s="80"/>
+      <c r="BI34" s="80"/>
+      <c r="BJ34" s="80"/>
+      <c r="BK34" s="80"/>
+      <c r="BL34" s="80"/>
     </row>
     <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="84">
+        <f>E29+2</f>
+        <v>45905</v>
+      </c>
+      <c r="F35" s="84">
+        <f>E35+3</f>
+        <v>45908</v>
+      </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+    </row>
+    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83">
+        <v>0.25</v>
+      </c>
+      <c r="E36" s="84">
+        <f>F35</f>
+        <v>45908</v>
+      </c>
+      <c r="F36" s="84">
+        <f>E36+4</f>
+        <v>45912</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
+      <c r="AQ36" s="51"/>
+      <c r="AR36" s="51"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="51"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
+      <c r="BB36" s="51"/>
+      <c r="BC36" s="51"/>
+      <c r="BD36" s="51"/>
+      <c r="BE36" s="51"/>
+      <c r="BF36" s="51"/>
+      <c r="BG36" s="51"/>
+      <c r="BH36" s="51"/>
+      <c r="BI36" s="51"/>
+      <c r="BJ36" s="51"/>
+      <c r="BK36" s="51"/>
+      <c r="BL36" s="51"/>
+    </row>
+    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="84">
+        <f>F36+1</f>
+        <v>45913</v>
+      </c>
+      <c r="F37" s="84">
+        <f>E37+3</f>
+        <v>45916</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="51"/>
+      <c r="AX37" s="51"/>
+      <c r="AY37" s="51"/>
+      <c r="AZ37" s="51"/>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="51"/>
+      <c r="BF37" s="51"/>
+      <c r="BG37" s="51"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="51"/>
+      <c r="BJ37" s="51"/>
+      <c r="BK37" s="51"/>
+      <c r="BL37" s="51"/>
+    </row>
+    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="84">
+        <f>E35+5</f>
+        <v>45910</v>
+      </c>
+      <c r="F38" s="84">
+        <f>E38+3</f>
+        <v>45913</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="51"/>
+      <c r="BJ38" s="51"/>
+      <c r="BK38" s="51"/>
+      <c r="BL38" s="51"/>
+    </row>
+    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="84">
+        <f>E35+7</f>
+        <v>45912</v>
+      </c>
+      <c r="F39" s="84">
+        <f>E39+5</f>
+        <v>45917</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="51"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
+      <c r="BH39" s="51"/>
+      <c r="BI39" s="51"/>
+      <c r="BJ39" s="51"/>
+      <c r="BK39" s="51"/>
+      <c r="BL39" s="51"/>
+    </row>
+    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
-      <c r="AH35" s="94"/>
-      <c r="AI35" s="94"/>
-      <c r="AJ35" s="94"/>
-      <c r="AK35" s="94"/>
-      <c r="AL35" s="94"/>
-      <c r="AM35" s="94"/>
-      <c r="AN35" s="94"/>
-      <c r="AO35" s="94"/>
-      <c r="AP35" s="94"/>
-      <c r="AQ35" s="94"/>
-      <c r="AR35" s="94"/>
-      <c r="AS35" s="94"/>
-      <c r="AT35" s="94"/>
-      <c r="AU35" s="94"/>
-      <c r="AV35" s="94"/>
-      <c r="AW35" s="94"/>
-      <c r="AX35" s="94"/>
-      <c r="AY35" s="94"/>
-      <c r="AZ35" s="94"/>
-      <c r="BA35" s="94"/>
-      <c r="BB35" s="94"/>
-      <c r="BC35" s="94"/>
-      <c r="BD35" s="94"/>
-      <c r="BE35" s="94"/>
-      <c r="BF35" s="94"/>
-      <c r="BG35" s="94"/>
-      <c r="BH35" s="94"/>
-      <c r="BI35" s="94"/>
-      <c r="BJ35" s="94"/>
-      <c r="BK35" s="94"/>
-      <c r="BL35" s="94"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="16"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="45"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="45"/>
+      <c r="AV40" s="45"/>
+      <c r="AW40" s="45"/>
+      <c r="AX40" s="45"/>
+      <c r="AY40" s="45"/>
+      <c r="AZ40" s="45"/>
+      <c r="BA40" s="45"/>
+      <c r="BB40" s="45"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="45"/>
+      <c r="BE40" s="45"/>
+      <c r="BF40" s="45"/>
+      <c r="BG40" s="45"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="45"/>
+      <c r="BJ40" s="45"/>
+      <c r="BK40" s="45"/>
+      <c r="BL40" s="45"/>
+    </row>
+    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="90"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I41" s="94"/>
+      <c r="J41" s="94"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="94"/>
+      <c r="AE41" s="94"/>
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="94"/>
+      <c r="AJ41" s="94"/>
+      <c r="AK41" s="94"/>
+      <c r="AL41" s="94"/>
+      <c r="AM41" s="94"/>
+      <c r="AN41" s="94"/>
+      <c r="AO41" s="94"/>
+      <c r="AP41" s="94"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="94"/>
+      <c r="AS41" s="94"/>
+      <c r="AT41" s="94"/>
+      <c r="AU41" s="94"/>
+      <c r="AV41" s="94"/>
+      <c r="AW41" s="94"/>
+      <c r="AX41" s="94"/>
+      <c r="AY41" s="94"/>
+      <c r="AZ41" s="94"/>
+      <c r="BA41" s="94"/>
+      <c r="BB41" s="94"/>
+      <c r="BC41" s="94"/>
+      <c r="BD41" s="94"/>
+      <c r="BE41" s="94"/>
+      <c r="BF41" s="94"/>
+      <c r="BG41" s="94"/>
+      <c r="BH41" s="94"/>
+      <c r="BI41" s="94"/>
+      <c r="BJ41" s="94"/>
+      <c r="BK41" s="94"/>
+      <c r="BL41" s="94"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="16"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4600,18 +5071,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4625,7 +5086,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL33">
+  <conditionalFormatting sqref="I4:BL39">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -4638,7 +5099,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL21">
+  <conditionalFormatting sqref="I17:BL27">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4646,7 +5107,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:BL27">
+  <conditionalFormatting sqref="I29:BL33">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4654,7 +5115,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL33">
+  <conditionalFormatting sqref="I35:BL39">
     <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4675,9 +5136,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9:A10" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A11" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A16" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A22" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A28" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A35" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A28" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A34" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A41" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -4686,7 +5147,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F20 F24:F25 E25 F30" formula="1"/>
+    <ignoredError sqref="F30:F31 E31 F36" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4704,7 +5165,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4837,12 +5298,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5158,29 +5630,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5207,13 +5672,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/TopperNav Gantt Chart.xlsx
+++ b/docs/TopperNav Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/014b0dfa241f4418/Desktop/TopperNav/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaden\TopperNav\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_3C4179B01545E19DD6C385890107473B0B440F85" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE62A62-0FFE-444A-942B-7DE6E2EA5E0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49384D8-3C9B-4A41-B5B8-3EE7A4CF6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>TopperNav</t>
   </si>
@@ -54,13 +54,7 @@
     <t>Project start:</t>
   </si>
   <si>
-    <t>Project Lead: Kayden Hunt</t>
-  </si>
-  <si>
     <t>Display week:</t>
-  </si>
-  <si>
-    <t>By: Aaron Downing, Kayden Hunt, Ryerson Brower</t>
   </si>
   <si>
     <t>TASK</t>
@@ -212,10 +206,19 @@
     <t>State / Component</t>
   </si>
   <si>
-    <t>Behavioral Desgin (State)</t>
+    <t>Presentation</t>
   </si>
   <si>
-    <t>Presentation</t>
+    <t>By: Aaron Downing, Kaden Hunt, Ryerson Brower</t>
+  </si>
+  <si>
+    <t>Project Lead: Ryerson Brower</t>
+  </si>
+  <si>
+    <t>Behavioral Designn (State)</t>
+  </si>
+  <si>
+    <t>Creational Design (Singleton)</t>
   </si>
 </sst>
 </file>
@@ -1136,19 +1139,34 @@
     <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1164,29 +1182,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1580,10 +1583,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1790,26 +1789,26 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BL45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="93" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="93" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="9" max="65" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="14"/>
       <c r="B1" s="103" t="s">
         <v>0</v>
@@ -1819,169 +1818,169 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="116">
+      <c r="Q1" s="121">
         <v>45888</v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="104" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
+      <c r="I2" s="124" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="119">
         <v>1</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="120"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="25" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="I4" s="111">
+      <c r="I4" s="128">
         <f>I5</f>
         <v>45887</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109">
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126">
         <f>P5</f>
         <v>45894</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="126"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126">
         <f>W5</f>
         <v>45901</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109">
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="126"/>
+      <c r="AD4" s="126">
         <f>AD5</f>
         <v>45908</v>
       </c>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109">
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
+      <c r="AG4" s="126"/>
+      <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
+      <c r="AJ4" s="126"/>
+      <c r="AK4" s="126">
         <f>AK5</f>
         <v>45915</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109">
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="126">
         <f>AR5</f>
         <v>45922</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109">
+      <c r="AS4" s="126"/>
+      <c r="AT4" s="126"/>
+      <c r="AU4" s="126"/>
+      <c r="AV4" s="126"/>
+      <c r="AW4" s="126"/>
+      <c r="AX4" s="126"/>
+      <c r="AY4" s="126">
         <f>AY5</f>
         <v>45929</v>
       </c>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109">
+      <c r="AZ4" s="126"/>
+      <c r="BA4" s="126"/>
+      <c r="BB4" s="126"/>
+      <c r="BC4" s="126"/>
+      <c r="BD4" s="126"/>
+      <c r="BE4" s="126"/>
+      <c r="BF4" s="126">
         <f>BF5</f>
         <v>45936</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="110"/>
-    </row>
-    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122" t="s">
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="126"/>
+      <c r="BI4" s="126"/>
+      <c r="BJ4" s="126"/>
+      <c r="BK4" s="126"/>
+      <c r="BL4" s="127"/>
+    </row>
+    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="113"/>
+      <c r="B5" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="E5" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="F5" s="118" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="112" t="s">
-        <v>9</v>
       </c>
       <c r="I5" s="31">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
@@ -2208,13 +2207,13 @@
         <v>45942</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="113"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
       <c r="I6" s="34" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2440,9 +2439,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
@@ -2510,10 +2509,10 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
@@ -2521,7 +2520,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H41" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2581,13 +2580,13 @@
       <c r="BK8" s="45"/>
       <c r="BL8" s="45"/>
     </row>
-    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -2662,13 +2661,13 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="48" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>45</v>
       </c>
       <c r="D10" s="49">
         <v>1</v>
@@ -2740,13 +2739,13 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="53">
         <v>1</v>
@@ -2821,13 +2820,13 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="54">
@@ -2836,12 +2835,12 @@
       </c>
       <c r="F12" s="54">
         <f ca="1">TODAY()</f>
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2900,24 +2899,24 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>39</v>
       </c>
       <c r="D13" s="53">
         <v>1</v>
       </c>
       <c r="E13" s="54">
         <f ca="1">F12</f>
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="F13" s="54">
         <f ca="1">E13+5</f>
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
@@ -2981,13 +2980,13 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="53">
         <v>1</v>
@@ -3062,13 +3061,13 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="105" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="106" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="107">
         <v>1</v>
@@ -3084,10 +3083,10 @@
       <c r="G15" s="17"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="58"/>
@@ -3099,13 +3098,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="63">
         <v>1</v>
@@ -3180,13 +3179,13 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="63">
         <v>1</v>
@@ -3258,13 +3257,13 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="63">
         <v>1</v>
@@ -3339,13 +3338,13 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="63">
         <v>1</v>
@@ -3417,13 +3416,13 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="63">
         <v>1</v>
@@ -3495,13 +3494,13 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="63">
         <v>1</v>
@@ -3576,24 +3575,22 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D23" s="63">
         <v>1</v>
       </c>
       <c r="E23" s="64">
-        <f>AM5</f>
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="F23" s="64">
-        <f>E23+5</f>
-        <v>45922</v>
+        <v>45921</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5"/>
@@ -3613,7 +3610,7 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="55"/>
+      <c r="Y23" s="51"/>
       <c r="Z23" s="51"/>
       <c r="AA23" s="51"/>
       <c r="AB23" s="51"/>
@@ -3654,23 +3651,23 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="63">
         <v>1</v>
       </c>
       <c r="E24" s="64">
-        <f>E22</f>
-        <v>45920</v>
+        <f>AM5</f>
+        <v>45917</v>
       </c>
       <c r="F24" s="64">
-        <f>F23</f>
+        <f>E24+5</f>
         <v>45922</v>
       </c>
       <c r="G24" s="17"/>
@@ -3732,30 +3729,27 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="61" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="63">
         <v>1</v>
       </c>
       <c r="E25" s="64">
-        <f>AV5</f>
-        <v>45926</v>
+        <f>E22</f>
+        <v>45920</v>
       </c>
       <c r="F25" s="64">
-        <f>E25+3</f>
-        <v>45929</v>
+        <f>F24</f>
+        <v>45922</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
       <c r="K25" s="51"/>
@@ -3772,7 +3766,7 @@
       <c r="V25" s="51"/>
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
+      <c r="Y25" s="55"/>
       <c r="Z25" s="51"/>
       <c r="AA25" s="51"/>
       <c r="AB25" s="51"/>
@@ -3813,100 +3807,103 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="127">
+      <c r="B26" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="63">
         <v>1</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="64">
+        <f>AV5</f>
+        <v>45926</v>
+      </c>
+      <c r="F26" s="64">
+        <f>E26+3</f>
+        <v>45929</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="51"/>
+      <c r="BA26" s="51"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="51"/>
+      <c r="BD26" s="51"/>
+      <c r="BE26" s="51"/>
+      <c r="BF26" s="51"/>
+      <c r="BG26" s="51"/>
+      <c r="BH26" s="51"/>
+      <c r="BI26" s="51"/>
+      <c r="BJ26" s="51"/>
+      <c r="BK26" s="51"/>
+      <c r="BL26" s="51"/>
+    </row>
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="111">
+        <v>1</v>
+      </c>
+      <c r="E27" s="112">
         <f>AD5</f>
         <v>45908</v>
       </c>
-      <c r="F26" s="128">
-        <f>AX5</f>
-        <v>45928</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="70"/>
-      <c r="AN26" s="70"/>
-      <c r="AO26" s="70"/>
-      <c r="AP26" s="70"/>
-      <c r="AQ26" s="70"/>
-      <c r="AR26" s="70"/>
-      <c r="AS26" s="70"/>
-      <c r="AT26" s="70"/>
-      <c r="AU26" s="70"/>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="70"/>
-      <c r="AX26" s="70"/>
-      <c r="AY26" s="70"/>
-      <c r="AZ26" s="70"/>
-      <c r="BA26" s="70"/>
-      <c r="BB26" s="70"/>
-      <c r="BC26" s="70"/>
-      <c r="BD26" s="70"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="70"/>
-      <c r="BG26" s="70"/>
-      <c r="BH26" s="70"/>
-      <c r="BI26" s="70"/>
-      <c r="BJ26" s="70"/>
-      <c r="BK26" s="70"/>
-      <c r="BL26" s="70"/>
-    </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="125" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="127">
-        <v>1</v>
-      </c>
-      <c r="E27" s="128">
-        <f>F9</f>
-        <v>45902</v>
-      </c>
-      <c r="F27" s="128">
+      <c r="F27" s="112">
         <f>AX5</f>
         <v>45928</v>
       </c>
@@ -3969,20 +3966,27 @@
       <c r="BK27" s="70"/>
       <c r="BL27" s="70"/>
     </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="B28" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="111">
+        <v>1</v>
+      </c>
+      <c r="E28" s="112">
+        <f>F9</f>
+        <v>45902</v>
+      </c>
+      <c r="F28" s="112">
+        <f>AX5</f>
+        <v>45928</v>
+      </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="70"/>
       <c r="J28" s="70"/>
       <c r="K28" s="70"/>
@@ -4040,106 +4044,98 @@
       <c r="BK28" s="70"/>
       <c r="BL28" s="70"/>
     </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="73">
+      <c r="B29" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="70"/>
+      <c r="AD29" s="70"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="70"/>
+      <c r="AG29" s="70"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="70"/>
+      <c r="AN29" s="70"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="70"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="70"/>
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="70"/>
+      <c r="BJ29" s="70"/>
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="70"/>
+    </row>
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73">
         <v>0.5</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E30" s="74">
         <f>E9+15</f>
         <v>45903</v>
       </c>
-      <c r="F29" s="74">
-        <f>E29+5</f>
+      <c r="F30" s="74">
+        <f>E30+5</f>
         <v>45908</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="5">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="51"/>
-      <c r="BA29" s="51"/>
-      <c r="BB29" s="51"/>
-      <c r="BC29" s="51"/>
-      <c r="BD29" s="51"/>
-      <c r="BE29" s="51"/>
-      <c r="BF29" s="51"/>
-      <c r="BG29" s="51"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="51"/>
-      <c r="BJ29" s="51"/>
-      <c r="BK29" s="51"/>
-      <c r="BL29" s="51"/>
-    </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="73">
-        <v>0.6</v>
-      </c>
-      <c r="E30" s="74">
-        <f>F29+1</f>
-        <v>45909</v>
-      </c>
-      <c r="F30" s="74">
-        <f>E30+4</f>
-        <v>45913</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -4198,27 +4194,27 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31" s="72"/>
       <c r="D31" s="73">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E31" s="74">
-        <f>E30+5</f>
-        <v>45914</v>
+        <f>F30+1</f>
+        <v>45909</v>
       </c>
       <c r="F31" s="74">
-        <f>E31+5</f>
-        <v>45919</v>
+        <f>E31+4</f>
+        <v>45913</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
@@ -4277,27 +4273,27 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="73">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E32" s="74">
-        <f>F31+1</f>
-        <v>45920</v>
+        <f>E31+5</f>
+        <v>45914</v>
       </c>
       <c r="F32" s="74">
-        <f>E32+4</f>
-        <v>45924</v>
+        <f>E32+5</f>
+        <v>45919</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
@@ -4356,22 +4352,22 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C33" s="72"/>
       <c r="D33" s="73">
         <v>0.25</v>
       </c>
       <c r="E33" s="74">
-        <f>E31</f>
-        <v>45914</v>
+        <f>F32+1</f>
+        <v>45920</v>
       </c>
       <c r="F33" s="74">
         <f>E33+4</f>
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="5">
@@ -4435,177 +4431,177 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
     </row>
-    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
+      <c r="B34" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="74">
+        <f>E32</f>
+        <v>45914</v>
+      </c>
+      <c r="F34" s="74">
+        <f>E34+4</f>
+        <v>45918</v>
+      </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="5" t="str">
+      <c r="H34" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51"/>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51"/>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="51"/>
+      <c r="AP34" s="51"/>
+      <c r="AQ34" s="51"/>
+      <c r="AR34" s="51"/>
+      <c r="AS34" s="51"/>
+      <c r="AT34" s="51"/>
+      <c r="AU34" s="51"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
+      <c r="BB34" s="51"/>
+      <c r="BC34" s="51"/>
+      <c r="BD34" s="51"/>
+      <c r="BE34" s="51"/>
+      <c r="BF34" s="51"/>
+      <c r="BG34" s="51"/>
+      <c r="BH34" s="51"/>
+      <c r="BI34" s="51"/>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51"/>
+      <c r="BL34" s="51"/>
+    </row>
+    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
-      <c r="T34" s="80"/>
-      <c r="U34" s="80"/>
-      <c r="V34" s="80"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="80"/>
-      <c r="Y34" s="80"/>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="80"/>
-      <c r="AI34" s="80"/>
-      <c r="AJ34" s="80"/>
-      <c r="AK34" s="80"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="80"/>
-      <c r="AO34" s="80"/>
-      <c r="AP34" s="80"/>
-      <c r="AQ34" s="80"/>
-      <c r="AR34" s="80"/>
-      <c r="AS34" s="80"/>
-      <c r="AT34" s="80"/>
-      <c r="AU34" s="80"/>
-      <c r="AV34" s="80"/>
-      <c r="AW34" s="80"/>
-      <c r="AX34" s="80"/>
-      <c r="AY34" s="80"/>
-      <c r="AZ34" s="80"/>
-      <c r="BA34" s="80"/>
-      <c r="BB34" s="80"/>
-      <c r="BC34" s="80"/>
-      <c r="BD34" s="80"/>
-      <c r="BE34" s="80"/>
-      <c r="BF34" s="80"/>
-      <c r="BG34" s="80"/>
-      <c r="BH34" s="80"/>
-      <c r="BI34" s="80"/>
-      <c r="BJ34" s="80"/>
-      <c r="BK34" s="80"/>
-      <c r="BL34" s="80"/>
-    </row>
-    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E35" s="84">
-        <f>E29+2</f>
-        <v>45905</v>
-      </c>
-      <c r="F35" s="84">
-        <f>E35+3</f>
-        <v>45908</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AL35" s="51"/>
-      <c r="AM35" s="51"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="51"/>
-      <c r="BA35" s="51"/>
-      <c r="BB35" s="51"/>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51"/>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
-      <c r="BG35" s="51"/>
-      <c r="BH35" s="51"/>
-      <c r="BI35" s="51"/>
-      <c r="BJ35" s="51"/>
-      <c r="BK35" s="51"/>
-      <c r="BL35" s="51"/>
-    </row>
-    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="80"/>
+      <c r="Z35" s="80"/>
+      <c r="AA35" s="80"/>
+      <c r="AB35" s="80"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="80"/>
+      <c r="AE35" s="80"/>
+      <c r="AF35" s="80"/>
+      <c r="AG35" s="80"/>
+      <c r="AH35" s="80"/>
+      <c r="AI35" s="80"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="80"/>
+      <c r="AL35" s="80"/>
+      <c r="AM35" s="80"/>
+      <c r="AN35" s="80"/>
+      <c r="AO35" s="80"/>
+      <c r="AP35" s="80"/>
+      <c r="AQ35" s="80"/>
+      <c r="AR35" s="80"/>
+      <c r="AS35" s="80"/>
+      <c r="AT35" s="80"/>
+      <c r="AU35" s="80"/>
+      <c r="AV35" s="80"/>
+      <c r="AW35" s="80"/>
+      <c r="AX35" s="80"/>
+      <c r="AY35" s="80"/>
+      <c r="AZ35" s="80"/>
+      <c r="BA35" s="80"/>
+      <c r="BB35" s="80"/>
+      <c r="BC35" s="80"/>
+      <c r="BD35" s="80"/>
+      <c r="BE35" s="80"/>
+      <c r="BF35" s="80"/>
+      <c r="BG35" s="80"/>
+      <c r="BH35" s="80"/>
+      <c r="BI35" s="80"/>
+      <c r="BJ35" s="80"/>
+      <c r="BK35" s="80"/>
+      <c r="BL35" s="80"/>
+    </row>
+    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="82"/>
       <c r="D36" s="83">
         <v>0.25</v>
       </c>
       <c r="E36" s="84">
-        <f>F35</f>
+        <f>E30+2</f>
+        <v>45905</v>
+      </c>
+      <c r="F36" s="84">
+        <f>E36+3</f>
         <v>45908</v>
-      </c>
-      <c r="F36" s="84">
-        <f>E36+4</f>
-        <v>45912</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
@@ -4664,27 +4660,27 @@
       <c r="BK36" s="51"/>
       <c r="BL36" s="51"/>
     </row>
-    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E37" s="84">
-        <f>F36+1</f>
-        <v>45913</v>
+        <f>F36</f>
+        <v>45908</v>
       </c>
       <c r="F37" s="84">
-        <f>E37+3</f>
-        <v>45916</v>
+        <f>E37+4</f>
+        <v>45912</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -4743,22 +4739,22 @@
       <c r="BK37" s="51"/>
       <c r="BL37" s="51"/>
     </row>
-    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="84">
-        <f>E35+5</f>
-        <v>45910</v>
+        <f>F37+1</f>
+        <v>45913</v>
       </c>
       <c r="F38" s="84">
         <f>E38+3</f>
-        <v>45913</v>
+        <v>45916</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="5">
@@ -4822,27 +4818,27 @@
       <c r="BK38" s="51"/>
       <c r="BL38" s="51"/>
     </row>
-    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="83">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="84">
-        <f>E35+7</f>
-        <v>45912</v>
+        <f>E36+5</f>
+        <v>45910</v>
       </c>
       <c r="F39" s="84">
-        <f>E39+5</f>
-        <v>45917</v>
+        <f>E39+3</f>
+        <v>45913</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
@@ -4901,168 +4897,237 @@
       <c r="BK39" s="51"/>
       <c r="BL39" s="51"/>
     </row>
-    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
+      <c r="B40" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="84">
+        <f>E36+7</f>
+        <v>45912</v>
+      </c>
+      <c r="F40" s="84">
+        <f>E40+5</f>
+        <v>45917</v>
+      </c>
       <c r="G40" s="17"/>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="51"/>
+      <c r="BA40" s="51"/>
+      <c r="BB40" s="51"/>
+      <c r="BC40" s="51"/>
+      <c r="BD40" s="51"/>
+      <c r="BE40" s="51"/>
+      <c r="BF40" s="51"/>
+      <c r="BG40" s="51"/>
+      <c r="BH40" s="51"/>
+      <c r="BI40" s="51"/>
+      <c r="BJ40" s="51"/>
+      <c r="BK40" s="51"/>
+      <c r="BL40" s="51"/>
+    </row>
+    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
-      <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-      <c r="AE40" s="45"/>
-      <c r="AF40" s="45"/>
-      <c r="AG40" s="45"/>
-      <c r="AH40" s="45"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="45"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="45"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="45"/>
-      <c r="AP40" s="45"/>
-      <c r="AQ40" s="45"/>
-      <c r="AR40" s="45"/>
-      <c r="AS40" s="45"/>
-      <c r="AT40" s="45"/>
-      <c r="AU40" s="45"/>
-      <c r="AV40" s="45"/>
-      <c r="AW40" s="45"/>
-      <c r="AX40" s="45"/>
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="45"/>
-      <c r="BA40" s="45"/>
-      <c r="BB40" s="45"/>
-      <c r="BC40" s="45"/>
-      <c r="BD40" s="45"/>
-      <c r="BE40" s="45"/>
-      <c r="BF40" s="45"/>
-      <c r="BG40" s="45"/>
-      <c r="BH40" s="45"/>
-      <c r="BI40" s="45"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="45"/>
-      <c r="BL40" s="45"/>
-    </row>
-    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="6" t="str">
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="45"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="45"/>
+      <c r="AV41" s="45"/>
+      <c r="AW41" s="45"/>
+      <c r="AX41" s="45"/>
+      <c r="AY41" s="45"/>
+      <c r="AZ41" s="45"/>
+      <c r="BA41" s="45"/>
+      <c r="BB41" s="45"/>
+      <c r="BC41" s="45"/>
+      <c r="BD41" s="45"/>
+      <c r="BE41" s="45"/>
+      <c r="BF41" s="45"/>
+      <c r="BG41" s="45"/>
+      <c r="BH41" s="45"/>
+      <c r="BI41" s="45"/>
+      <c r="BJ41" s="45"/>
+      <c r="BK41" s="45"/>
+      <c r="BL41" s="45"/>
+    </row>
+    <row r="42" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="90"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I41" s="94"/>
-      <c r="J41" s="94"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="94"/>
-      <c r="M41" s="94"/>
-      <c r="N41" s="94"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="94"/>
-      <c r="Q41" s="94"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="94"/>
-      <c r="T41" s="94"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="94"/>
-      <c r="W41" s="94"/>
-      <c r="X41" s="94"/>
-      <c r="Y41" s="94"/>
-      <c r="Z41" s="94"/>
-      <c r="AA41" s="94"/>
-      <c r="AB41" s="94"/>
-      <c r="AC41" s="94"/>
-      <c r="AD41" s="94"/>
-      <c r="AE41" s="94"/>
-      <c r="AF41" s="94"/>
-      <c r="AG41" s="94"/>
-      <c r="AH41" s="94"/>
-      <c r="AI41" s="94"/>
-      <c r="AJ41" s="94"/>
-      <c r="AK41" s="94"/>
-      <c r="AL41" s="94"/>
-      <c r="AM41" s="94"/>
-      <c r="AN41" s="94"/>
-      <c r="AO41" s="94"/>
-      <c r="AP41" s="94"/>
-      <c r="AQ41" s="94"/>
-      <c r="AR41" s="94"/>
-      <c r="AS41" s="94"/>
-      <c r="AT41" s="94"/>
-      <c r="AU41" s="94"/>
-      <c r="AV41" s="94"/>
-      <c r="AW41" s="94"/>
-      <c r="AX41" s="94"/>
-      <c r="AY41" s="94"/>
-      <c r="AZ41" s="94"/>
-      <c r="BA41" s="94"/>
-      <c r="BB41" s="94"/>
-      <c r="BC41" s="94"/>
-      <c r="BD41" s="94"/>
-      <c r="BE41" s="94"/>
-      <c r="BF41" s="94"/>
-      <c r="BG41" s="94"/>
-      <c r="BH41" s="94"/>
-      <c r="BI41" s="94"/>
-      <c r="BJ41" s="94"/>
-      <c r="BK41" s="94"/>
-      <c r="BL41" s="94"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="F43" s="15"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="94"/>
+      <c r="AK42" s="94"/>
+      <c r="AL42" s="94"/>
+      <c r="AM42" s="94"/>
+      <c r="AN42" s="94"/>
+      <c r="AO42" s="94"/>
+      <c r="AP42" s="94"/>
+      <c r="AQ42" s="94"/>
+      <c r="AR42" s="94"/>
+      <c r="AS42" s="94"/>
+      <c r="AT42" s="94"/>
+      <c r="AU42" s="94"/>
+      <c r="AV42" s="94"/>
+      <c r="AW42" s="94"/>
+      <c r="AX42" s="94"/>
+      <c r="AY42" s="94"/>
+      <c r="AZ42" s="94"/>
+      <c r="BA42" s="94"/>
+      <c r="BB42" s="94"/>
+      <c r="BC42" s="94"/>
+      <c r="BD42" s="94"/>
+      <c r="BE42" s="94"/>
+      <c r="BF42" s="94"/>
+      <c r="BG42" s="94"/>
+      <c r="BH42" s="94"/>
+      <c r="BI42" s="94"/>
+      <c r="BJ42" s="94"/>
+      <c r="BK42" s="94"/>
+      <c r="BL42" s="94"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
+      <c r="C44" s="16"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -5071,8 +5136,18 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D41">
+  <conditionalFormatting sqref="D7:D42">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5086,7 +5161,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL39">
+  <conditionalFormatting sqref="I4:BL40">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -5099,7 +5174,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:BL27">
+  <conditionalFormatting sqref="I17:BL28">
     <cfRule type="expression" dxfId="5" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5107,7 +5182,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:BL33">
+  <conditionalFormatting sqref="I30:BL34">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5115,7 +5190,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL39">
+  <conditionalFormatting sqref="I36:BL40">
     <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5136,9 +5211,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9:A10" xr:uid="{D870A2F6-6B07-4F5A-A81D-4BCCFADF8796}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A11" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A16" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A28" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A34" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A41" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -5147,7 +5222,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F30:F31 E31 F36" formula="1"/>
+    <ignoredError sqref="F31:F32 E32 F37" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5165,7 +5240,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D41</xm:sqref>
+          <xm:sqref>D7:D42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5179,110 +5254,110 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
       <c r="A4" s="98" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="100" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A9" s="99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A8" s="98" t="s">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="101" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A11" s="98" t="s">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+      <c r="A14" s="98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="99" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
-      <c r="A14" s="98" t="s">
+    <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="99" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="102"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="102"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="102"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="102"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="102"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="102"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="102"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="102"/>
     </row>
   </sheetData>
@@ -5298,23 +5373,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5630,22 +5694,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5672,9 +5743,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/TopperNav Gantt Chart.xlsx
+++ b/docs/TopperNav Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaden\TopperNav\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/014b0dfa241f4418/Desktop/TopperNav/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49384D8-3C9B-4A41-B5B8-3EE7A4CF6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B49384D8-3C9B-4A41-B5B8-3EE7A4CF6FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD7B01F7-FA19-46A7-A595-F1BDC3AFE131}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>TopperNav</t>
   </si>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t>Creational Design (Singleton)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireframes/Storyboards </t>
+  </si>
+  <si>
+    <t>Aaron and Kaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Performance </t>
+  </si>
+  <si>
+    <t>Product Secuerity</t>
+  </si>
+  <si>
+    <t>UI of App</t>
+  </si>
+  <si>
+    <t>Bottlenecks Descriptions</t>
   </si>
 </sst>
 </file>
@@ -1151,22 +1172,19 @@
     <xf numFmtId="164" fontId="19" fillId="4" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1182,14 +1200,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1789,26 +1810,26 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL45"/>
+  <dimension ref="A1:BL46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="93" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScale="84" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.75" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="1.45">
       <c r="A1" s="14"/>
       <c r="B1" s="103" t="s">
         <v>0</v>
@@ -1818,30 +1839,30 @@
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
       <c r="P1" s="24"/>
-      <c r="Q1" s="121">
+      <c r="Q1" s="120">
         <v>45888</v>
       </c>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="104" t="s">
         <v>53</v>
       </c>
@@ -1849,28 +1870,28 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="22"/>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
       <c r="P2" s="24"/>
-      <c r="Q2" s="119">
-        <v>1</v>
-      </c>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="120"/>
+      <c r="Q2" s="118">
+        <v>9</v>
+      </c>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1880,336 +1901,336 @@
       <c r="D3" s="27"/>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:64" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="29"/>
       <c r="E4" s="30"/>
-      <c r="I4" s="128">
+      <c r="I4" s="115">
         <f>I5</f>
-        <v>45887</v>
-      </c>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126">
+        <v>45943</v>
+      </c>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113">
         <f>P5</f>
-        <v>45894</v>
-      </c>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126">
+        <v>45950</v>
+      </c>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113">
         <f>W5</f>
-        <v>45901</v>
-      </c>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126">
+        <v>45957</v>
+      </c>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="113"/>
+      <c r="AD4" s="113">
         <f>AD5</f>
-        <v>45908</v>
-      </c>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126">
+        <v>45964</v>
+      </c>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113">
         <f>AK5</f>
-        <v>45915</v>
-      </c>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126">
+        <v>45971</v>
+      </c>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113">
         <f>AR5</f>
-        <v>45922</v>
-      </c>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126">
+        <v>45978</v>
+      </c>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113">
         <f>AY5</f>
-        <v>45929</v>
-      </c>
-      <c r="AZ4" s="126"/>
-      <c r="BA4" s="126"/>
-      <c r="BB4" s="126"/>
-      <c r="BC4" s="126"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="126"/>
-      <c r="BF4" s="126">
+        <v>45985</v>
+      </c>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113">
         <f>BF5</f>
-        <v>45936</v>
-      </c>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="126"/>
-      <c r="BI4" s="126"/>
-      <c r="BJ4" s="126"/>
-      <c r="BK4" s="126"/>
-      <c r="BL4" s="127"/>
-    </row>
-    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114" t="s">
+        <v>45992</v>
+      </c>
+      <c r="BG4" s="113"/>
+      <c r="BH4" s="113"/>
+      <c r="BI4" s="113"/>
+      <c r="BJ4" s="113"/>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="114"/>
+    </row>
+    <row r="5" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="125"/>
+      <c r="B5" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="116" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="31">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45887</v>
+        <v>45943</v>
       </c>
       <c r="J5" s="31">
         <f>I5+1</f>
-        <v>45888</v>
+        <v>45944</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45889</v>
+        <v>45945</v>
       </c>
       <c r="L5" s="31">
         <f t="shared" si="0"/>
-        <v>45890</v>
+        <v>45946</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" si="0"/>
-        <v>45891</v>
+        <v>45947</v>
       </c>
       <c r="N5" s="31">
         <f t="shared" si="0"/>
-        <v>45892</v>
+        <v>45948</v>
       </c>
       <c r="O5" s="32">
         <f t="shared" si="0"/>
-        <v>45893</v>
+        <v>45949</v>
       </c>
       <c r="P5" s="33">
         <f>O5+1</f>
-        <v>45894</v>
+        <v>45950</v>
       </c>
       <c r="Q5" s="31">
         <f>P5+1</f>
-        <v>45895</v>
+        <v>45951</v>
       </c>
       <c r="R5" s="31">
         <f t="shared" si="0"/>
-        <v>45896</v>
+        <v>45952</v>
       </c>
       <c r="S5" s="31">
         <f t="shared" si="0"/>
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="T5" s="31">
         <f t="shared" si="0"/>
-        <v>45898</v>
+        <v>45954</v>
       </c>
       <c r="U5" s="31">
         <f t="shared" si="0"/>
-        <v>45899</v>
+        <v>45955</v>
       </c>
       <c r="V5" s="32">
         <f t="shared" si="0"/>
-        <v>45900</v>
+        <v>45956</v>
       </c>
       <c r="W5" s="33">
         <f>V5+1</f>
-        <v>45901</v>
+        <v>45957</v>
       </c>
       <c r="X5" s="31">
         <f>W5+1</f>
-        <v>45902</v>
+        <v>45958</v>
       </c>
       <c r="Y5" s="31">
         <f t="shared" si="0"/>
-        <v>45903</v>
+        <v>45959</v>
       </c>
       <c r="Z5" s="31">
         <f t="shared" si="0"/>
-        <v>45904</v>
+        <v>45960</v>
       </c>
       <c r="AA5" s="31">
         <f t="shared" si="0"/>
-        <v>45905</v>
+        <v>45961</v>
       </c>
       <c r="AB5" s="31">
         <f t="shared" si="0"/>
-        <v>45906</v>
+        <v>45962</v>
       </c>
       <c r="AC5" s="32">
         <f t="shared" si="0"/>
-        <v>45907</v>
+        <v>45963</v>
       </c>
       <c r="AD5" s="33">
         <f>AC5+1</f>
-        <v>45908</v>
+        <v>45964</v>
       </c>
       <c r="AE5" s="31">
         <f>AD5+1</f>
-        <v>45909</v>
+        <v>45965</v>
       </c>
       <c r="AF5" s="31">
         <f t="shared" si="0"/>
-        <v>45910</v>
+        <v>45966</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" si="0"/>
-        <v>45911</v>
+        <v>45967</v>
       </c>
       <c r="AH5" s="31">
         <f t="shared" si="0"/>
-        <v>45912</v>
+        <v>45968</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" si="0"/>
-        <v>45913</v>
+        <v>45969</v>
       </c>
       <c r="AJ5" s="32">
         <f t="shared" si="0"/>
-        <v>45914</v>
+        <v>45970</v>
       </c>
       <c r="AK5" s="33">
         <f>AJ5+1</f>
-        <v>45915</v>
+        <v>45971</v>
       </c>
       <c r="AL5" s="31">
         <f>AK5+1</f>
-        <v>45916</v>
+        <v>45972</v>
       </c>
       <c r="AM5" s="31">
         <f t="shared" si="0"/>
-        <v>45917</v>
+        <v>45973</v>
       </c>
       <c r="AN5" s="31">
         <f t="shared" si="0"/>
-        <v>45918</v>
+        <v>45974</v>
       </c>
       <c r="AO5" s="31">
         <f t="shared" si="0"/>
-        <v>45919</v>
+        <v>45975</v>
       </c>
       <c r="AP5" s="31">
         <f t="shared" si="0"/>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="AQ5" s="32">
         <f t="shared" si="0"/>
-        <v>45921</v>
+        <v>45977</v>
       </c>
       <c r="AR5" s="33">
         <f>AQ5+1</f>
-        <v>45922</v>
+        <v>45978</v>
       </c>
       <c r="AS5" s="31">
         <f>AR5+1</f>
-        <v>45923</v>
+        <v>45979</v>
       </c>
       <c r="AT5" s="31">
         <f t="shared" si="0"/>
-        <v>45924</v>
+        <v>45980</v>
       </c>
       <c r="AU5" s="31">
         <f t="shared" si="0"/>
-        <v>45925</v>
+        <v>45981</v>
       </c>
       <c r="AV5" s="31">
         <f t="shared" si="0"/>
-        <v>45926</v>
+        <v>45982</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" si="0"/>
-        <v>45927</v>
+        <v>45983</v>
       </c>
       <c r="AX5" s="32">
         <f t="shared" si="0"/>
-        <v>45928</v>
+        <v>45984</v>
       </c>
       <c r="AY5" s="33">
         <f>AX5+1</f>
-        <v>45929</v>
+        <v>45985</v>
       </c>
       <c r="AZ5" s="31">
         <f>AY5+1</f>
-        <v>45930</v>
+        <v>45986</v>
       </c>
       <c r="BA5" s="31">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45931</v>
+        <v>45987</v>
       </c>
       <c r="BB5" s="31">
         <f t="shared" si="1"/>
-        <v>45932</v>
+        <v>45988</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" si="1"/>
-        <v>45933</v>
+        <v>45989</v>
       </c>
       <c r="BD5" s="31">
         <f t="shared" si="1"/>
-        <v>45934</v>
+        <v>45990</v>
       </c>
       <c r="BE5" s="32">
         <f t="shared" si="1"/>
-        <v>45935</v>
+        <v>45991</v>
       </c>
       <c r="BF5" s="33">
         <f>BE5+1</f>
-        <v>45936</v>
+        <v>45992</v>
       </c>
       <c r="BG5" s="31">
         <f>BF5+1</f>
-        <v>45937</v>
+        <v>45993</v>
       </c>
       <c r="BH5" s="31">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45938</v>
+        <v>45994</v>
       </c>
       <c r="BI5" s="31">
         <f t="shared" si="2"/>
-        <v>45939</v>
+        <v>45995</v>
       </c>
       <c r="BJ5" s="31">
         <f t="shared" si="2"/>
-        <v>45940</v>
+        <v>45996</v>
       </c>
       <c r="BK5" s="31">
         <f t="shared" si="2"/>
-        <v>45941</v>
+        <v>45997</v>
       </c>
       <c r="BL5" s="31">
         <f t="shared" si="2"/>
-        <v>45942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="115"/>
+        <v>45998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="26" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="125"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="117"/>
       <c r="D6" s="117"/>
       <c r="E6" s="117"/>
@@ -2439,7 +2460,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="26" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
@@ -2509,7 +2530,7 @@
       <c r="BK7" s="39"/>
       <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="40" t="s">
         <v>9</v>
@@ -2520,7 +2541,7 @@
       <c r="F8" s="44"/>
       <c r="G8" s="17"/>
       <c r="H8" s="5" t="str">
-        <f t="shared" ref="H8:H42" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H43" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="45"/>
@@ -2580,7 +2601,7 @@
       <c r="BK8" s="45"/>
       <c r="BL8" s="45"/>
     </row>
-    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="47" t="s">
         <v>42</v>
@@ -2593,11 +2614,11 @@
       </c>
       <c r="E9" s="50">
         <f>J5</f>
-        <v>45888</v>
+        <v>45944</v>
       </c>
       <c r="F9" s="50">
         <f>E9+14</f>
-        <v>45902</v>
+        <v>45958</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="5">
@@ -2661,7 +2682,7 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="47" t="s">
         <v>41</v>
@@ -2674,11 +2695,11 @@
       </c>
       <c r="E10" s="50">
         <f>J5</f>
-        <v>45888</v>
+        <v>45944</v>
       </c>
       <c r="F10" s="50">
         <f>X5</f>
-        <v>45902</v>
+        <v>45958</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="5"/>
@@ -2739,7 +2760,7 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="47" t="s">
         <v>34</v>
@@ -2752,11 +2773,11 @@
       </c>
       <c r="E11" s="54">
         <f>S5</f>
-        <v>45897</v>
+        <v>45953</v>
       </c>
       <c r="F11" s="54">
         <f>E11+2</f>
-        <v>45899</v>
+        <v>45955</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="5">
@@ -2820,7 +2841,7 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="47" t="s">
         <v>36</v>
@@ -2831,16 +2852,16 @@
       <c r="D12" s="53"/>
       <c r="E12" s="54">
         <f>J5</f>
-        <v>45888</v>
+        <v>45944</v>
       </c>
       <c r="F12" s="54">
         <f ca="1">TODAY()</f>
-        <v>45929</v>
+        <v>45957</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2899,7 +2920,7 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="47" t="s">
         <v>35</v>
@@ -2912,11 +2933,11 @@
       </c>
       <c r="E13" s="54">
         <f ca="1">F12</f>
-        <v>45929</v>
+        <v>45957</v>
       </c>
       <c r="F13" s="54">
         <f ca="1">E13+5</f>
-        <v>45934</v>
+        <v>45962</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="5">
@@ -2980,7 +3001,7 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="47" t="s">
         <v>33</v>
@@ -3061,7 +3082,7 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="105" t="s">
         <v>39</v>
@@ -3074,16 +3095,16 @@
       </c>
       <c r="E15" s="108">
         <f>I5</f>
-        <v>45887</v>
+        <v>45943</v>
       </c>
       <c r="F15" s="108">
         <f>X5</f>
-        <v>45902</v>
+        <v>45958</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="56" t="s">
         <v>15</v>
@@ -3098,7 +3119,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="61" t="s">
         <v>44</v>
@@ -3111,11 +3132,11 @@
       </c>
       <c r="E17" s="64">
         <f>AC5</f>
-        <v>45907</v>
+        <v>45963</v>
       </c>
       <c r="F17" s="64">
         <f>AJ5</f>
-        <v>45914</v>
+        <v>45970</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
@@ -3179,7 +3200,7 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="61" t="s">
         <v>47</v>
@@ -3192,11 +3213,11 @@
       </c>
       <c r="E18" s="64">
         <f>AF5</f>
-        <v>45910</v>
+        <v>45966</v>
       </c>
       <c r="F18" s="64">
         <f>AN5</f>
-        <v>45918</v>
+        <v>45974</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="5"/>
@@ -3257,7 +3278,7 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="61" t="s">
         <v>45</v>
@@ -3270,11 +3291,11 @@
       </c>
       <c r="E19" s="64">
         <f>AK5</f>
-        <v>45915</v>
+        <v>45971</v>
       </c>
       <c r="F19" s="64">
         <f>E19+5</f>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="5">
@@ -3338,7 +3359,7 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="61" t="s">
         <v>49</v>
@@ -3351,11 +3372,11 @@
       </c>
       <c r="E20" s="64">
         <f>AP5</f>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="F20" s="64">
         <f>E20+3</f>
-        <v>45923</v>
+        <v>45979</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="5"/>
@@ -3416,7 +3437,7 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
         <v>46</v>
@@ -3429,11 +3450,11 @@
       </c>
       <c r="E21" s="64">
         <f>E20</f>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="F21" s="64">
         <f>E20+5</f>
-        <v>45925</v>
+        <v>45981</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5"/>
@@ -3494,7 +3515,7 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
         <v>39</v>
@@ -3507,11 +3528,11 @@
       </c>
       <c r="E22" s="64">
         <f>F19</f>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="F22" s="64">
         <f>E22+5</f>
-        <v>45925</v>
+        <v>45981</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
@@ -3575,7 +3596,7 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="61" t="s">
         <v>55</v>
@@ -3651,7 +3672,7 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="61" t="s">
         <v>54</v>
@@ -3664,11 +3685,11 @@
       </c>
       <c r="E24" s="64">
         <f>AM5</f>
-        <v>45917</v>
+        <v>45973</v>
       </c>
       <c r="F24" s="64">
         <f>E24+5</f>
-        <v>45922</v>
+        <v>45978</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5"/>
@@ -3729,7 +3750,7 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="61" t="s">
         <v>50</v>
@@ -3742,11 +3763,11 @@
       </c>
       <c r="E25" s="64">
         <f>E22</f>
-        <v>45920</v>
+        <v>45976</v>
       </c>
       <c r="F25" s="64">
         <f>F24</f>
-        <v>45922</v>
+        <v>45978</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="5"/>
@@ -3807,7 +3828,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="61" t="s">
         <v>41</v>
@@ -3820,11 +3841,11 @@
       </c>
       <c r="E26" s="64">
         <f>AV5</f>
-        <v>45926</v>
+        <v>45982</v>
       </c>
       <c r="F26" s="64">
         <f>E26+3</f>
-        <v>45929</v>
+        <v>45985</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="5">
@@ -3888,7 +3909,7 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="109" t="s">
         <v>51</v>
@@ -3901,11 +3922,11 @@
       </c>
       <c r="E27" s="112">
         <f>AD5</f>
-        <v>45908</v>
+        <v>45964</v>
       </c>
       <c r="F27" s="112">
         <f>AX5</f>
-        <v>45928</v>
+        <v>45984</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5"/>
@@ -3966,7 +3987,7 @@
       <c r="BK27" s="70"/>
       <c r="BL27" s="70"/>
     </row>
-    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="109" t="s">
         <v>42</v>
@@ -3979,11 +4000,11 @@
       </c>
       <c r="E28" s="112">
         <f>F9</f>
-        <v>45902</v>
+        <v>45958</v>
       </c>
       <c r="F28" s="112">
         <f>AX5</f>
-        <v>45928</v>
+        <v>45984</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5"/>
@@ -4044,7 +4065,7 @@
       <c r="BK28" s="70"/>
       <c r="BL28" s="70"/>
     </row>
-    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="65" t="s">
         <v>16</v>
@@ -4115,27 +4136,28 @@
       <c r="BK29" s="70"/>
       <c r="BL29" s="70"/>
     </row>
-    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="72"/>
+        <v>56</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>57</v>
+      </c>
       <c r="D30" s="73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="74">
-        <f>E9+15</f>
-        <v>45903</v>
+        <v>45942</v>
       </c>
       <c r="F30" s="74">
-        <f>E30+5</f>
-        <v>45908</v>
+        <f>E30+8</f>
+        <v>45950</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
@@ -4194,22 +4216,24 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="72"/>
+        <v>58</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>43</v>
+      </c>
       <c r="D31" s="73">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="74">
         <f>F30+1</f>
-        <v>45909</v>
+        <v>45951</v>
       </c>
       <c r="F31" s="74">
         <f>E31+4</f>
-        <v>45913</v>
+        <v>45955</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
@@ -4273,22 +4297,24 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="72"/>
+        <v>59</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>43</v>
+      </c>
       <c r="D32" s="73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="74">
-        <f>E31+5</f>
-        <v>45914</v>
+        <f>E31</f>
+        <v>45951</v>
       </c>
       <c r="F32" s="74">
         <f>E32+5</f>
-        <v>45919</v>
+        <v>45956</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="5">
@@ -4352,27 +4378,29 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="72"/>
+        <v>60</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>57</v>
+      </c>
       <c r="D33" s="73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E33" s="74">
         <f>F32+1</f>
-        <v>45920</v>
+        <v>45957</v>
       </c>
       <c r="F33" s="74">
-        <f>E33+4</f>
-        <v>45924</v>
+        <f>E33+6</f>
+        <v>45963</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
@@ -4431,28 +4459,27 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
     </row>
-    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="72"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>48</v>
+      </c>
       <c r="D34" s="73">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E34" s="74">
-        <f>E32</f>
-        <v>45914</v>
+        <f>E33</f>
+        <v>45957</v>
       </c>
       <c r="F34" s="74">
-        <f>E34+4</f>
-        <v>45918</v>
+        <f>E34+6</f>
+        <v>45963</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+      <c r="H34" s="5"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
       <c r="K34" s="51"/>
@@ -4510,177 +4537,179 @@
       <c r="BK34" s="51"/>
       <c r="BL34" s="51"/>
     </row>
-    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="73">
+        <v>1</v>
+      </c>
+      <c r="E35" s="74">
+        <f>E32</f>
+        <v>45951</v>
+      </c>
+      <c r="F35" s="74">
+        <f>E35+8</f>
+        <v>45959</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="5">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AL35" s="51"/>
+      <c r="AM35" s="51"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="51"/>
+      <c r="BA35" s="51"/>
+      <c r="BB35" s="51"/>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51"/>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+    </row>
+    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="5" t="str">
+      <c r="C36" s="76"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="80"/>
-      <c r="Y35" s="80"/>
-      <c r="Z35" s="80"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="80"/>
-      <c r="AC35" s="80"/>
-      <c r="AD35" s="80"/>
-      <c r="AE35" s="80"/>
-      <c r="AF35" s="80"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="80"/>
-      <c r="AI35" s="80"/>
-      <c r="AJ35" s="80"/>
-      <c r="AK35" s="80"/>
-      <c r="AL35" s="80"/>
-      <c r="AM35" s="80"/>
-      <c r="AN35" s="80"/>
-      <c r="AO35" s="80"/>
-      <c r="AP35" s="80"/>
-      <c r="AQ35" s="80"/>
-      <c r="AR35" s="80"/>
-      <c r="AS35" s="80"/>
-      <c r="AT35" s="80"/>
-      <c r="AU35" s="80"/>
-      <c r="AV35" s="80"/>
-      <c r="AW35" s="80"/>
-      <c r="AX35" s="80"/>
-      <c r="AY35" s="80"/>
-      <c r="AZ35" s="80"/>
-      <c r="BA35" s="80"/>
-      <c r="BB35" s="80"/>
-      <c r="BC35" s="80"/>
-      <c r="BD35" s="80"/>
-      <c r="BE35" s="80"/>
-      <c r="BF35" s="80"/>
-      <c r="BG35" s="80"/>
-      <c r="BH35" s="80"/>
-      <c r="BI35" s="80"/>
-      <c r="BJ35" s="80"/>
-      <c r="BK35" s="80"/>
-      <c r="BL35" s="80"/>
-    </row>
-    <row r="36" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="84">
-        <f>E30+2</f>
-        <v>45905</v>
-      </c>
-      <c r="F36" s="84">
-        <f>E36+3</f>
-        <v>45908</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="5">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="51"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="51"/>
-      <c r="AE36" s="51"/>
-      <c r="AF36" s="51"/>
-      <c r="AG36" s="51"/>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51"/>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51"/>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51"/>
-      <c r="AN36" s="51"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51"/>
-      <c r="AS36" s="51"/>
-      <c r="AT36" s="51"/>
-      <c r="AU36" s="51"/>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
-      <c r="BB36" s="51"/>
-      <c r="BC36" s="51"/>
-      <c r="BD36" s="51"/>
-      <c r="BE36" s="51"/>
-      <c r="BF36" s="51"/>
-      <c r="BG36" s="51"/>
-      <c r="BH36" s="51"/>
-      <c r="BI36" s="51"/>
-      <c r="BJ36" s="51"/>
-      <c r="BK36" s="51"/>
-      <c r="BL36" s="51"/>
-    </row>
-    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="80"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="80"/>
+      <c r="AL36" s="80"/>
+      <c r="AM36" s="80"/>
+      <c r="AN36" s="80"/>
+      <c r="AO36" s="80"/>
+      <c r="AP36" s="80"/>
+      <c r="AQ36" s="80"/>
+      <c r="AR36" s="80"/>
+      <c r="AS36" s="80"/>
+      <c r="AT36" s="80"/>
+      <c r="AU36" s="80"/>
+      <c r="AV36" s="80"/>
+      <c r="AW36" s="80"/>
+      <c r="AX36" s="80"/>
+      <c r="AY36" s="80"/>
+      <c r="AZ36" s="80"/>
+      <c r="BA36" s="80"/>
+      <c r="BB36" s="80"/>
+      <c r="BC36" s="80"/>
+      <c r="BD36" s="80"/>
+      <c r="BE36" s="80"/>
+      <c r="BF36" s="80"/>
+      <c r="BG36" s="80"/>
+      <c r="BH36" s="80"/>
+      <c r="BI36" s="80"/>
+      <c r="BJ36" s="80"/>
+      <c r="BK36" s="80"/>
+      <c r="BL36" s="80"/>
+    </row>
+    <row r="37" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="82"/>
       <c r="D37" s="83">
         <v>0.25</v>
       </c>
       <c r="E37" s="84">
-        <f>F36</f>
-        <v>45908</v>
+        <f>E30+2</f>
+        <v>45944</v>
       </c>
       <c r="F37" s="84">
-        <f>E37+4</f>
-        <v>45912</v>
+        <f>E37+3</f>
+        <v>45947</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -4739,27 +4768,27 @@
       <c r="BK37" s="51"/>
       <c r="BL37" s="51"/>
     </row>
-    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E38" s="84">
-        <f>F37+1</f>
-        <v>45913</v>
+        <f>F37</f>
+        <v>45947</v>
       </c>
       <c r="F38" s="84">
-        <f>E38+3</f>
-        <v>45916</v>
+        <f>E38+4</f>
+        <v>45951</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -4818,22 +4847,22 @@
       <c r="BK38" s="51"/>
       <c r="BL38" s="51"/>
     </row>
-    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="84">
-        <f>E36+5</f>
-        <v>45910</v>
+        <f>F38+1</f>
+        <v>45952</v>
       </c>
       <c r="F39" s="84">
         <f>E39+3</f>
-        <v>45913</v>
+        <v>45955</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="5">
@@ -4897,27 +4926,27 @@
       <c r="BK39" s="51"/>
       <c r="BL39" s="51"/>
     </row>
-    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="82"/>
       <c r="D40" s="83">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E40" s="84">
-        <f>E36+7</f>
-        <v>45912</v>
+        <f>E37+5</f>
+        <v>45949</v>
       </c>
       <c r="F40" s="84">
-        <f>E40+5</f>
-        <v>45917</v>
+        <f>E40+3</f>
+        <v>45952</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I40" s="51"/>
       <c r="J40" s="51"/>
@@ -4976,158 +5005,247 @@
       <c r="BK40" s="51"/>
       <c r="BL40" s="51"/>
     </row>
-    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
+      <c r="B41" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="84">
+        <f>E37+7</f>
+        <v>45951</v>
+      </c>
+      <c r="F41" s="84">
+        <f>E41+5</f>
+        <v>45956</v>
+      </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="51"/>
+      <c r="AV41" s="51"/>
+      <c r="AW41" s="51"/>
+      <c r="AX41" s="51"/>
+      <c r="AY41" s="51"/>
+      <c r="AZ41" s="51"/>
+      <c r="BA41" s="51"/>
+      <c r="BB41" s="51"/>
+      <c r="BC41" s="51"/>
+      <c r="BD41" s="51"/>
+      <c r="BE41" s="51"/>
+      <c r="BF41" s="51"/>
+      <c r="BG41" s="51"/>
+      <c r="BH41" s="51"/>
+      <c r="BI41" s="51"/>
+      <c r="BJ41" s="51"/>
+      <c r="BK41" s="51"/>
+      <c r="BL41" s="51"/>
+    </row>
+    <row r="42" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="45"/>
-      <c r="AK41" s="45"/>
-      <c r="AL41" s="45"/>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="45"/>
-      <c r="AO41" s="45"/>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
-      <c r="AT41" s="45"/>
-      <c r="AU41" s="45"/>
-      <c r="AV41" s="45"/>
-      <c r="AW41" s="45"/>
-      <c r="AX41" s="45"/>
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="45"/>
-      <c r="BA41" s="45"/>
-      <c r="BB41" s="45"/>
-      <c r="BC41" s="45"/>
-      <c r="BD41" s="45"/>
-      <c r="BE41" s="45"/>
-      <c r="BF41" s="45"/>
-      <c r="BG41" s="45"/>
-      <c r="BH41" s="45"/>
-      <c r="BI41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="45"/>
-      <c r="BL41" s="45"/>
-    </row>
-    <row r="42" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="89" t="s">
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="45"/>
+      <c r="AE42" s="45"/>
+      <c r="AF42" s="45"/>
+      <c r="AG42" s="45"/>
+      <c r="AH42" s="45"/>
+      <c r="AI42" s="45"/>
+      <c r="AJ42" s="45"/>
+      <c r="AK42" s="45"/>
+      <c r="AL42" s="45"/>
+      <c r="AM42" s="45"/>
+      <c r="AN42" s="45"/>
+      <c r="AO42" s="45"/>
+      <c r="AP42" s="45"/>
+      <c r="AQ42" s="45"/>
+      <c r="AR42" s="45"/>
+      <c r="AS42" s="45"/>
+      <c r="AT42" s="45"/>
+      <c r="AU42" s="45"/>
+      <c r="AV42" s="45"/>
+      <c r="AW42" s="45"/>
+      <c r="AX42" s="45"/>
+      <c r="AY42" s="45"/>
+      <c r="AZ42" s="45"/>
+      <c r="BA42" s="45"/>
+      <c r="BB42" s="45"/>
+      <c r="BC42" s="45"/>
+      <c r="BD42" s="45"/>
+      <c r="BE42" s="45"/>
+      <c r="BF42" s="45"/>
+      <c r="BG42" s="45"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="45"/>
+      <c r="BJ42" s="45"/>
+      <c r="BK42" s="45"/>
+      <c r="BL42" s="45"/>
+    </row>
+    <row r="43" spans="1:64" s="46" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="90"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="6" t="str">
+      <c r="C43" s="90"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-      <c r="K42" s="94"/>
-      <c r="L42" s="94"/>
-      <c r="M42" s="94"/>
-      <c r="N42" s="94"/>
-      <c r="O42" s="94"/>
-      <c r="P42" s="94"/>
-      <c r="Q42" s="94"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="94"/>
-      <c r="T42" s="94"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="94"/>
-      <c r="W42" s="94"/>
-      <c r="X42" s="94"/>
-      <c r="Y42" s="94"/>
-      <c r="Z42" s="94"/>
-      <c r="AA42" s="94"/>
-      <c r="AB42" s="94"/>
-      <c r="AC42" s="94"/>
-      <c r="AD42" s="94"/>
-      <c r="AE42" s="94"/>
-      <c r="AF42" s="94"/>
-      <c r="AG42" s="94"/>
-      <c r="AH42" s="94"/>
-      <c r="AI42" s="94"/>
-      <c r="AJ42" s="94"/>
-      <c r="AK42" s="94"/>
-      <c r="AL42" s="94"/>
-      <c r="AM42" s="94"/>
-      <c r="AN42" s="94"/>
-      <c r="AO42" s="94"/>
-      <c r="AP42" s="94"/>
-      <c r="AQ42" s="94"/>
-      <c r="AR42" s="94"/>
-      <c r="AS42" s="94"/>
-      <c r="AT42" s="94"/>
-      <c r="AU42" s="94"/>
-      <c r="AV42" s="94"/>
-      <c r="AW42" s="94"/>
-      <c r="AX42" s="94"/>
-      <c r="AY42" s="94"/>
-      <c r="AZ42" s="94"/>
-      <c r="BA42" s="94"/>
-      <c r="BB42" s="94"/>
-      <c r="BC42" s="94"/>
-      <c r="BD42" s="94"/>
-      <c r="BE42" s="94"/>
-      <c r="BF42" s="94"/>
-      <c r="BG42" s="94"/>
-      <c r="BH42" s="94"/>
-      <c r="BI42" s="94"/>
-      <c r="BJ42" s="94"/>
-      <c r="BK42" s="94"/>
-      <c r="BL42" s="94"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G43" s="3"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="94"/>
+      <c r="AI43" s="94"/>
+      <c r="AJ43" s="94"/>
+      <c r="AK43" s="94"/>
+      <c r="AL43" s="94"/>
+      <c r="AM43" s="94"/>
+      <c r="AN43" s="94"/>
+      <c r="AO43" s="94"/>
+      <c r="AP43" s="94"/>
+      <c r="AQ43" s="94"/>
+      <c r="AR43" s="94"/>
+      <c r="AS43" s="94"/>
+      <c r="AT43" s="94"/>
+      <c r="AU43" s="94"/>
+      <c r="AV43" s="94"/>
+      <c r="AW43" s="94"/>
+      <c r="AX43" s="94"/>
+      <c r="AY43" s="94"/>
+      <c r="AZ43" s="94"/>
+      <c r="BA43" s="94"/>
+      <c r="BB43" s="94"/>
+      <c r="BC43" s="94"/>
+      <c r="BD43" s="94"/>
+      <c r="BE43" s="94"/>
+      <c r="BF43" s="94"/>
+      <c r="BG43" s="94"/>
+      <c r="BH43" s="94"/>
+      <c r="BI43" s="94"/>
+      <c r="BJ43" s="94"/>
+      <c r="BK43" s="94"/>
+      <c r="BL43" s="94"/>
     </row>
     <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="16"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="4"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="16"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -5136,18 +5254,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D42">
+  <conditionalFormatting sqref="D7:D43">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5161,7 +5269,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL40">
+  <conditionalFormatting sqref="I4:BL41">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -5182,7 +5290,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:BL34">
+  <conditionalFormatting sqref="I30:BL35">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5190,7 +5298,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36:BL40">
+  <conditionalFormatting sqref="I37:BL41">
     <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5212,8 +5320,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A11" xr:uid="{872449A7-C3CC-45B6-BA90-B1AAD66BA0E5}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A16" xr:uid="{4F48FC41-E335-47F1-87AA-3333A52AD81C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A29" xr:uid="{956902D1-D3B5-416D-BB69-9362D193BC0A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A35" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A42" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 4's sample block starts in cell B26." sqref="A36" xr:uid="{DE54E5DE-526D-4D71-8D03-E99B4AB2FEE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A43" xr:uid="{79B9237E-4DD3-4E0F-8ED6-E0B695A99D96}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -5222,7 +5330,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F31:F32 E32 F37" formula="1"/>
+    <ignoredError sqref="F32 F38" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5240,7 +5348,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D42</xm:sqref>
+          <xm:sqref>D7:D43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5254,110 +5362,110 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="87" style="7" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A4" s="98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" s="7" customFormat="1" ht="205.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A8" s="98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A11" s="98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.7">
       <c r="A14" s="98" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="102"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="102"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="102"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="102"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="102"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="102"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="102"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="102"/>
     </row>
   </sheetData>
@@ -5373,12 +5481,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5694,29 +5813,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5743,13 +5855,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
